--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2113.208125873446</v>
+        <v>2222.88319054198</v>
       </c>
       <c r="AB2" t="n">
-        <v>2891.384585982847</v>
+        <v>3041.446847984879</v>
       </c>
       <c r="AC2" t="n">
-        <v>2615.434899180398</v>
+        <v>2751.175429510547</v>
       </c>
       <c r="AD2" t="n">
-        <v>2113208.125873446</v>
+        <v>2222883.19054198</v>
       </c>
       <c r="AE2" t="n">
-        <v>2891384.585982847</v>
+        <v>3041446.847984879</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.023827147773635e-07</v>
+        <v>1.669644279153594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.8408203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2615434.899180398</v>
+        <v>2751175.429510547</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1012.680532514573</v>
+        <v>1085.76879534207</v>
       </c>
       <c r="AB3" t="n">
-        <v>1385.594180898437</v>
+        <v>1485.596766525607</v>
       </c>
       <c r="AC3" t="n">
-        <v>1253.355016967136</v>
+        <v>1343.813496176559</v>
       </c>
       <c r="AD3" t="n">
-        <v>1012680.532514572</v>
+        <v>1085768.79534207</v>
       </c>
       <c r="AE3" t="n">
-        <v>1385594.180898437</v>
+        <v>1485596.766525607</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421124397478143e-06</v>
+        <v>2.629452206207641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.693359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1253355.016967136</v>
+        <v>1343813.496176559</v>
       </c>
     </row>
     <row r="4">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>830.6608661492195</v>
+        <v>891.4682770170181</v>
       </c>
       <c r="AB4" t="n">
-        <v>1136.54684323642</v>
+        <v>1219.746225419379</v>
       </c>
       <c r="AC4" t="n">
-        <v>1028.076407671449</v>
+        <v>1103.335357589932</v>
       </c>
       <c r="AD4" t="n">
-        <v>830660.8661492195</v>
+        <v>891468.2770170181</v>
       </c>
       <c r="AE4" t="n">
-        <v>1136546.84323642</v>
+        <v>1219746.225419379</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.615605845474133e-06</v>
+        <v>2.989293803049539e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.405924479166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1028076.407671449</v>
+        <v>1103335.357589932</v>
       </c>
     </row>
     <row r="5">
@@ -4770,28 +4770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>743.9830291610601</v>
+        <v>804.8756913748792</v>
       </c>
       <c r="AB5" t="n">
-        <v>1017.950402712934</v>
+        <v>1101.266429548542</v>
       </c>
       <c r="AC5" t="n">
-        <v>920.798644980374</v>
+        <v>996.1631071495698</v>
       </c>
       <c r="AD5" t="n">
-        <v>743983.0291610601</v>
+        <v>804875.6913748792</v>
       </c>
       <c r="AE5" t="n">
-        <v>1017950.402712934</v>
+        <v>1101266.429548542</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.721856391714862e-06</v>
+        <v>3.185885131521012e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.824869791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>920798.644980374</v>
+        <v>996163.1071495698</v>
       </c>
     </row>
     <row r="6">
@@ -4876,28 +4876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>699.7438925627023</v>
+        <v>748.4410436713943</v>
       </c>
       <c r="AB6" t="n">
-        <v>957.4204643260977</v>
+        <v>1024.050054839693</v>
       </c>
       <c r="AC6" t="n">
-        <v>866.0455989588754</v>
+        <v>926.3161548690707</v>
       </c>
       <c r="AD6" t="n">
-        <v>699743.8925627023</v>
+        <v>748441.0436713942</v>
       </c>
       <c r="AE6" t="n">
-        <v>957420.4643260976</v>
+        <v>1024050.054839693</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.789266667976554e-06</v>
+        <v>3.310611791588151e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.492838541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>866045.5989588754</v>
+        <v>926316.1548690707</v>
       </c>
     </row>
     <row r="7">
@@ -4982,28 +4982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>670.6512185755412</v>
+        <v>719.3483696842334</v>
       </c>
       <c r="AB7" t="n">
-        <v>917.6145842986709</v>
+        <v>984.2441748122662</v>
       </c>
       <c r="AC7" t="n">
-        <v>830.0387362533628</v>
+        <v>890.3092921635583</v>
       </c>
       <c r="AD7" t="n">
-        <v>670651.2185755412</v>
+        <v>719348.3696842333</v>
       </c>
       <c r="AE7" t="n">
-        <v>917614.584298671</v>
+        <v>984244.1748122663</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.834922658408642e-06</v>
+        <v>3.395087327284592e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>830038.7362533628</v>
+        <v>890309.2921635583</v>
       </c>
     </row>
     <row r="8">
@@ -5088,28 +5088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>647.8752820421012</v>
+        <v>696.5724331507932</v>
       </c>
       <c r="AB8" t="n">
-        <v>886.4515431302138</v>
+        <v>953.0811336438093</v>
       </c>
       <c r="AC8" t="n">
-        <v>801.8498519964203</v>
+        <v>862.1204079066158</v>
       </c>
       <c r="AD8" t="n">
-        <v>647875.2820421011</v>
+        <v>696572.4331507932</v>
       </c>
       <c r="AE8" t="n">
-        <v>886451.5431302139</v>
+        <v>953081.1336438092</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.868907894640299e-06</v>
+        <v>3.457968912138385e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.131510416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>801849.8519964203</v>
+        <v>862120.4079066158</v>
       </c>
     </row>
     <row r="9">
@@ -5194,28 +5194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>632.3173027205617</v>
+        <v>681.0144538292537</v>
       </c>
       <c r="AB9" t="n">
-        <v>865.1644294528775</v>
+        <v>931.7940199664729</v>
       </c>
       <c r="AC9" t="n">
-        <v>782.5943505717971</v>
+        <v>842.8649064819925</v>
       </c>
       <c r="AD9" t="n">
-        <v>632317.3027205616</v>
+        <v>681014.4538292538</v>
       </c>
       <c r="AE9" t="n">
-        <v>865164.4294528775</v>
+        <v>931794.0199664729</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.890382082369093e-06</v>
+        <v>3.497701781688859e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.038736979166666</v>
       </c>
       <c r="AH9" t="n">
-        <v>782594.3505717971</v>
+        <v>842864.9064819926</v>
       </c>
     </row>
     <row r="10">
@@ -5300,28 +5300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>603.3168870632595</v>
+        <v>664.1242084225072</v>
       </c>
       <c r="AB10" t="n">
-        <v>825.4847813425141</v>
+        <v>908.6840410559245</v>
       </c>
       <c r="AC10" t="n">
-        <v>746.7016723863509</v>
+        <v>821.9605115236079</v>
       </c>
       <c r="AD10" t="n">
-        <v>603316.8870632595</v>
+        <v>664124.2084225072</v>
       </c>
       <c r="AE10" t="n">
-        <v>825484.7813425141</v>
+        <v>908684.0410559245</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.912416466299507e-06</v>
+        <v>3.538471160879779e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.945963541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>746701.6723863509</v>
+        <v>821960.5115236079</v>
       </c>
     </row>
     <row r="11">
@@ -5406,28 +5406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>590.0785423046239</v>
+        <v>638.8609447593367</v>
       </c>
       <c r="AB11" t="n">
-        <v>807.371494009197</v>
+        <v>874.1177291754417</v>
       </c>
       <c r="AC11" t="n">
-        <v>730.3170917739674</v>
+        <v>790.693159934875</v>
       </c>
       <c r="AD11" t="n">
-        <v>590078.5423046239</v>
+        <v>638860.9447593366</v>
       </c>
       <c r="AE11" t="n">
-        <v>807371.494009197</v>
+        <v>874117.7291754417</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.926888201508042e-06</v>
+        <v>3.565247659924663e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.8857421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>730317.0917739674</v>
+        <v>790693.159934875</v>
       </c>
     </row>
     <row r="12">
@@ -5512,28 +5512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>576.2700533909381</v>
+        <v>625.0524558456508</v>
       </c>
       <c r="AB12" t="n">
-        <v>788.4781102899556</v>
+        <v>855.2243454562002</v>
       </c>
       <c r="AC12" t="n">
-        <v>713.2268660798595</v>
+        <v>773.6029342407672</v>
       </c>
       <c r="AD12" t="n">
-        <v>576270.0533909381</v>
+        <v>625052.4558456508</v>
       </c>
       <c r="AE12" t="n">
-        <v>788478.1102899555</v>
+        <v>855224.3454562002</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.943413989455853e-06</v>
+        <v>3.595824694317854e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>713226.8660798596</v>
+        <v>773602.9342407673</v>
       </c>
     </row>
     <row r="13">
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>566.0316774565607</v>
+        <v>614.8140799112733</v>
       </c>
       <c r="AB13" t="n">
-        <v>774.4695126512726</v>
+        <v>841.2157478175172</v>
       </c>
       <c r="AC13" t="n">
-        <v>700.5552293386223</v>
+        <v>760.9312974995299</v>
       </c>
       <c r="AD13" t="n">
-        <v>566031.6774565607</v>
+        <v>614814.0799112733</v>
       </c>
       <c r="AE13" t="n">
-        <v>774469.5126512726</v>
+        <v>841215.7478175173</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.95088327214413e-06</v>
+        <v>3.609644822857149e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.789713541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>700555.2293386223</v>
+        <v>760931.2974995299</v>
       </c>
     </row>
     <row r="14">
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>554.0855222851887</v>
+        <v>602.8679247399014</v>
       </c>
       <c r="AB14" t="n">
-        <v>758.1242561186308</v>
+        <v>824.8704912848755</v>
       </c>
       <c r="AC14" t="n">
-        <v>685.7699411487444</v>
+        <v>746.1460093096521</v>
       </c>
       <c r="AD14" t="n">
-        <v>554085.5222851888</v>
+        <v>602867.9247399013</v>
       </c>
       <c r="AE14" t="n">
-        <v>758124.2561186308</v>
+        <v>824870.4912848754</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.961060169806906e-06</v>
+        <v>3.628474747991939e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.7490234375</v>
       </c>
       <c r="AH14" t="n">
-        <v>685769.9411487443</v>
+        <v>746146.009309652</v>
       </c>
     </row>
     <row r="15">
@@ -5830,28 +5830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>546.6059428947058</v>
+        <v>595.3883453494185</v>
       </c>
       <c r="AB15" t="n">
-        <v>747.890365620818</v>
+        <v>814.6366007870627</v>
       </c>
       <c r="AC15" t="n">
-        <v>676.5127587966871</v>
+        <v>736.8888269575948</v>
       </c>
       <c r="AD15" t="n">
-        <v>546605.9428947058</v>
+        <v>595388.3453494185</v>
       </c>
       <c r="AE15" t="n">
-        <v>747890.365620818</v>
+        <v>814636.6007870627</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.96712896199113e-06</v>
+        <v>3.639703602430116e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.724609375</v>
       </c>
       <c r="AH15" t="n">
-        <v>676512.7587966871</v>
+        <v>736888.8269575948</v>
       </c>
     </row>
     <row r="16">
@@ -5936,28 +5936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>545.1905158294961</v>
+        <v>593.9729182842087</v>
       </c>
       <c r="AB16" t="n">
-        <v>745.9537158659629</v>
+        <v>812.6999510322075</v>
       </c>
       <c r="AC16" t="n">
-        <v>674.7609401763305</v>
+        <v>735.1370083372382</v>
       </c>
       <c r="AD16" t="n">
-        <v>545190.5158294961</v>
+        <v>593972.9182842087</v>
       </c>
       <c r="AE16" t="n">
-        <v>745953.7158659629</v>
+        <v>812699.9510322076</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.96983657696563e-06</v>
+        <v>3.64471339902561e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.71484375</v>
       </c>
       <c r="AH16" t="n">
-        <v>674760.9401763305</v>
+        <v>735137.0083372382</v>
       </c>
     </row>
   </sheetData>
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1478.407961082551</v>
+        <v>1560.668694665552</v>
       </c>
       <c r="AB2" t="n">
-        <v>2022.822995109199</v>
+        <v>2135.375759884897</v>
       </c>
       <c r="AC2" t="n">
-        <v>1829.767607505881</v>
+        <v>1931.578494380184</v>
       </c>
       <c r="AD2" t="n">
-        <v>1478407.961082551</v>
+        <v>1560668.694665552</v>
       </c>
       <c r="AE2" t="n">
-        <v>2022822.995109199</v>
+        <v>2135375.759884897</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.106101217127637e-06</v>
+        <v>2.108399627099239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1829767.607505881</v>
+        <v>1931578.494380184</v>
       </c>
     </row>
     <row r="3">
@@ -6339,28 +6339,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>813.7053877587217</v>
+        <v>884.1169788458819</v>
       </c>
       <c r="AB3" t="n">
-        <v>1113.347609679628</v>
+        <v>1209.687854945244</v>
       </c>
       <c r="AC3" t="n">
-        <v>1007.091276404987</v>
+        <v>1094.236943876837</v>
       </c>
       <c r="AD3" t="n">
-        <v>813705.3877587217</v>
+        <v>884116.9788458819</v>
       </c>
       <c r="AE3" t="n">
-        <v>1113347.609679627</v>
+        <v>1209687.854945244</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.587291949203247e-06</v>
+        <v>3.02562342575523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.903971354166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1007091.276404987</v>
+        <v>1094236.943876837</v>
       </c>
     </row>
     <row r="4">
@@ -6445,28 +6445,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>682.4361316341289</v>
+        <v>741.1693514431435</v>
       </c>
       <c r="AB4" t="n">
-        <v>933.7392222591011</v>
+        <v>1014.10060472858</v>
       </c>
       <c r="AC4" t="n">
-        <v>844.624461397921</v>
+        <v>917.3162663124218</v>
       </c>
       <c r="AD4" t="n">
-        <v>682436.1316341289</v>
+        <v>741169.3514431434</v>
       </c>
       <c r="AE4" t="n">
-        <v>933739.2222591011</v>
+        <v>1014100.60472858</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.765106509169365e-06</v>
+        <v>3.364565419598201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>844624.461397921</v>
+        <v>917316.2663124218</v>
       </c>
     </row>
     <row r="5">
@@ -6551,28 +6551,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>627.8470974870107</v>
+        <v>674.8166946718591</v>
       </c>
       <c r="AB5" t="n">
-        <v>859.0480974407967</v>
+        <v>923.3139724614887</v>
       </c>
       <c r="AC5" t="n">
-        <v>777.0617527026234</v>
+        <v>835.1941828090628</v>
       </c>
       <c r="AD5" t="n">
-        <v>627847.0974870108</v>
+        <v>674816.694671859</v>
       </c>
       <c r="AE5" t="n">
-        <v>859048.0974407967</v>
+        <v>923313.9724614887</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.858215273866452e-06</v>
+        <v>3.542045094809838e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.460286458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>777061.7527026234</v>
+        <v>835194.1828090628</v>
       </c>
     </row>
     <row r="6">
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>594.8638266049973</v>
+        <v>641.8334237898457</v>
       </c>
       <c r="AB6" t="n">
-        <v>813.9189311008118</v>
+        <v>878.1848061215038</v>
       </c>
       <c r="AC6" t="n">
-        <v>736.239650658944</v>
+        <v>794.3720807653833</v>
       </c>
       <c r="AD6" t="n">
-        <v>594863.8266049973</v>
+        <v>641833.4237898457</v>
       </c>
       <c r="AE6" t="n">
-        <v>813918.9311008118</v>
+        <v>878184.8061215038</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.914911171041961e-06</v>
+        <v>3.650116224840161e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>736239.650658944</v>
+        <v>794372.0807653833</v>
       </c>
     </row>
     <row r="7">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>569.3794323418202</v>
+        <v>616.3490295266686</v>
       </c>
       <c r="AB7" t="n">
-        <v>779.0500585778066</v>
+        <v>843.3159335984988</v>
       </c>
       <c r="AC7" t="n">
-        <v>704.6986143907644</v>
+        <v>762.8310444972041</v>
       </c>
       <c r="AD7" t="n">
-        <v>569379.4323418202</v>
+        <v>616349.0295266686</v>
       </c>
       <c r="AE7" t="n">
-        <v>779050.0585778066</v>
+        <v>843315.9335984988</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.956829432326749e-06</v>
+        <v>3.730018900194776e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.033854166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>704698.6143907644</v>
+        <v>762831.044497204</v>
       </c>
     </row>
     <row r="8">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>538.5264237331991</v>
+        <v>597.1743026876419</v>
       </c>
       <c r="AB8" t="n">
-        <v>736.8356110608155</v>
+        <v>817.0802264080971</v>
       </c>
       <c r="AC8" t="n">
-        <v>666.5130544964458</v>
+        <v>739.0992363790077</v>
       </c>
       <c r="AD8" t="n">
-        <v>538526.423733199</v>
+        <v>597174.3026876419</v>
       </c>
       <c r="AE8" t="n">
-        <v>736835.6110608155</v>
+        <v>817080.2264080971</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.982714441599383e-06</v>
+        <v>3.779359722763988e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.928059895833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>666513.0544964458</v>
+        <v>739099.2363790077</v>
       </c>
     </row>
     <row r="9">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>519.9839658556657</v>
+        <v>567.0388143865347</v>
       </c>
       <c r="AB9" t="n">
-        <v>711.4650021572673</v>
+        <v>775.8475218306086</v>
       </c>
       <c r="AC9" t="n">
-        <v>643.5637808987788</v>
+        <v>701.8017232559305</v>
       </c>
       <c r="AD9" t="n">
-        <v>519983.9658556657</v>
+        <v>567038.8143865347</v>
       </c>
       <c r="AE9" t="n">
-        <v>711465.0021572673</v>
+        <v>775847.5218306086</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.007440420606078e-06</v>
+        <v>3.826491254770396e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.830403645833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>643563.7808987788</v>
+        <v>701801.7232559305</v>
       </c>
     </row>
     <row r="10">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>503.2967067237396</v>
+        <v>550.3515552546085</v>
       </c>
       <c r="AB10" t="n">
-        <v>688.6327580230507</v>
+        <v>753.0152776963919</v>
       </c>
       <c r="AC10" t="n">
-        <v>622.9106140994759</v>
+        <v>681.1485564566277</v>
       </c>
       <c r="AD10" t="n">
-        <v>503296.7067237396</v>
+        <v>550351.5552546085</v>
       </c>
       <c r="AE10" t="n">
-        <v>688632.7580230506</v>
+        <v>753015.2776963919</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.025115632161646e-06</v>
+        <v>3.860182935853104e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.762044270833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>622910.6140994759</v>
+        <v>681148.5564566277</v>
       </c>
     </row>
     <row r="11">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>494.4136055768089</v>
+        <v>541.4684541076779</v>
       </c>
       <c r="AB11" t="n">
-        <v>676.478507139056</v>
+        <v>740.8610268123975</v>
       </c>
       <c r="AC11" t="n">
-        <v>611.9163478612517</v>
+        <v>670.1542902184032</v>
       </c>
       <c r="AD11" t="n">
-        <v>494413.605576809</v>
+        <v>541468.4541076779</v>
       </c>
       <c r="AE11" t="n">
-        <v>676478.507139056</v>
+        <v>740861.0268123975</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.032166399612774e-06</v>
+        <v>3.873622786776807e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.736002604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>611916.3478612517</v>
+        <v>670154.2902184032</v>
       </c>
     </row>
     <row r="12">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>494.8913602631507</v>
+        <v>541.9462087940196</v>
       </c>
       <c r="AB12" t="n">
-        <v>677.1321921779581</v>
+        <v>741.5147118512994</v>
       </c>
       <c r="AC12" t="n">
-        <v>612.5076461174936</v>
+        <v>670.7455884746452</v>
       </c>
       <c r="AD12" t="n">
-        <v>494891.3602631507</v>
+        <v>541946.2087940197</v>
       </c>
       <c r="AE12" t="n">
-        <v>677132.1921779581</v>
+        <v>741514.7118512994</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.035257146988611e-06</v>
+        <v>3.879514228277609e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.724609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>612507.6461174935</v>
+        <v>670745.5884746452</v>
       </c>
     </row>
     <row r="13">
@@ -7399,28 +7399,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>496.84800359289</v>
+        <v>543.9028521237589</v>
       </c>
       <c r="AB13" t="n">
-        <v>679.8093579027188</v>
+        <v>744.1918775760602</v>
       </c>
       <c r="AC13" t="n">
-        <v>614.9293069029088</v>
+        <v>673.1672492600603</v>
       </c>
       <c r="AD13" t="n">
-        <v>496848.00359289</v>
+        <v>543902.8521237589</v>
       </c>
       <c r="AE13" t="n">
-        <v>679809.3579027188</v>
+        <v>744191.8775760601</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.035353732844106e-06</v>
+        <v>3.879698335824509e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.722981770833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>614929.3069029088</v>
+        <v>673167.2492600604</v>
       </c>
     </row>
   </sheetData>
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>587.3368110208211</v>
+        <v>649.9467842588232</v>
       </c>
       <c r="AB2" t="n">
-        <v>803.6201363100507</v>
+        <v>889.285863851361</v>
       </c>
       <c r="AC2" t="n">
-        <v>726.9237583885638</v>
+        <v>804.4136691259353</v>
       </c>
       <c r="AD2" t="n">
-        <v>587336.8110208211</v>
+        <v>649946.7842588231</v>
       </c>
       <c r="AE2" t="n">
-        <v>803620.1363100507</v>
+        <v>889285.863851361</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.760732335143113e-06</v>
+        <v>3.749899085036262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.962565104166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>726923.7583885638</v>
+        <v>804413.6691259353</v>
       </c>
     </row>
     <row r="3">
@@ -7802,28 +7802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>428.6102660548356</v>
+        <v>470.3787846735785</v>
       </c>
       <c r="AB3" t="n">
-        <v>586.4434749666386</v>
+        <v>643.593004837793</v>
       </c>
       <c r="AC3" t="n">
-        <v>530.4741327944084</v>
+        <v>582.1693917445289</v>
       </c>
       <c r="AD3" t="n">
-        <v>428610.2660548356</v>
+        <v>470378.7846735785</v>
       </c>
       <c r="AE3" t="n">
-        <v>586443.4749666386</v>
+        <v>643593.0048377931</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.10087258425321e-06</v>
+        <v>4.474308799939514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.349609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>530474.1327944085</v>
+        <v>582169.3917445289</v>
       </c>
     </row>
     <row r="4">
@@ -7908,28 +7908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.4519057023815</v>
+        <v>425.5984364491928</v>
       </c>
       <c r="AB4" t="n">
-        <v>510.9733729172941</v>
+        <v>582.3225568276536</v>
       </c>
       <c r="AC4" t="n">
-        <v>462.2067913616999</v>
+        <v>526.7465092988631</v>
       </c>
       <c r="AD4" t="n">
-        <v>373451.9057023815</v>
+        <v>425598.4364491928</v>
       </c>
       <c r="AE4" t="n">
-        <v>510973.3729172941</v>
+        <v>582322.5568276535</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.204876177533072e-06</v>
+        <v>4.695809235580084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.955729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>462206.7913616999</v>
+        <v>526746.5092988631</v>
       </c>
     </row>
     <row r="5">
@@ -8014,28 +8014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.4339780127824</v>
+        <v>424.5805087595937</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.5805993445845</v>
+        <v>580.9297832549438</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.9469421439995</v>
+        <v>525.4866600811628</v>
       </c>
       <c r="AD5" t="n">
-        <v>372433.9780127824</v>
+        <v>424580.5087595936</v>
       </c>
       <c r="AE5" t="n">
-        <v>509580.5993445845</v>
+        <v>580929.7832549438</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.212636031124938e-06</v>
+        <v>4.712335692954303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.928059895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>460946.9421439996</v>
+        <v>525486.6600811628</v>
       </c>
     </row>
   </sheetData>
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>836.0548679374991</v>
+        <v>890.9139376770519</v>
       </c>
       <c r="AB2" t="n">
-        <v>1143.927154449708</v>
+        <v>1218.987753878712</v>
       </c>
       <c r="AC2" t="n">
-        <v>1034.752352340872</v>
+        <v>1102.649273508584</v>
       </c>
       <c r="AD2" t="n">
-        <v>836054.8679374991</v>
+        <v>890913.9376770519</v>
       </c>
       <c r="AE2" t="n">
-        <v>1143927.154449709</v>
+        <v>1218987.753878711</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.497918659774242e-06</v>
+        <v>3.041292757249876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.20279947916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1034752.352340872</v>
+        <v>1102649.273508584</v>
       </c>
     </row>
     <row r="3">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.3189794257602</v>
+        <v>608.0926188021904</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.0754383608767</v>
+        <v>832.0191481981337</v>
       </c>
       <c r="AC3" t="n">
-        <v>684.8212210857652</v>
+        <v>752.6124084403117</v>
       </c>
       <c r="AD3" t="n">
-        <v>553318.9794257602</v>
+        <v>608092.6188021904</v>
       </c>
       <c r="AE3" t="n">
-        <v>757075.4383608766</v>
+        <v>832019.1481981337</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.895906409411396e-06</v>
+        <v>3.849345485979538e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.850911458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>684821.2210857652</v>
+        <v>752612.4084403117</v>
       </c>
     </row>
     <row r="4">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.4480671751571</v>
+        <v>531.2500000139379</v>
       </c>
       <c r="AB4" t="n">
-        <v>666.9479502000497</v>
+        <v>726.879687114964</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.2953739002834</v>
+        <v>657.5073099587595</v>
       </c>
       <c r="AD4" t="n">
-        <v>487448.0671751571</v>
+        <v>531250.0000139379</v>
       </c>
       <c r="AE4" t="n">
-        <v>666947.9502000497</v>
+        <v>726879.687114964</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.035717649957504e-06</v>
+        <v>4.133210641460735e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.243815104166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>603295.3739002834</v>
+        <v>657507.3099587595</v>
       </c>
     </row>
     <row r="5">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>438.7618447634735</v>
+        <v>493.450143285332</v>
       </c>
       <c r="AB5" t="n">
-        <v>600.3333128118414</v>
+        <v>675.1602555269008</v>
       </c>
       <c r="AC5" t="n">
-        <v>543.038344010175</v>
+        <v>610.7239083327827</v>
       </c>
       <c r="AD5" t="n">
-        <v>438761.8447634735</v>
+        <v>493450.143285332</v>
       </c>
       <c r="AE5" t="n">
-        <v>600333.3128118415</v>
+        <v>675160.2555269008</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.110984763230853e-06</v>
+        <v>4.286028903629816e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.94921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>543038.344010175</v>
+        <v>610723.9083327827</v>
       </c>
     </row>
     <row r="6">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>416.7272714198141</v>
+        <v>460.6144556046154</v>
       </c>
       <c r="AB6" t="n">
-        <v>570.1846374662779</v>
+        <v>630.2330190338416</v>
       </c>
       <c r="AC6" t="n">
-        <v>515.7670159256604</v>
+        <v>570.0844642348486</v>
       </c>
       <c r="AD6" t="n">
-        <v>416727.2714198141</v>
+        <v>460614.4556046154</v>
       </c>
       <c r="AE6" t="n">
-        <v>570184.6374662779</v>
+        <v>630233.0190338417</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.146143784636622e-06</v>
+        <v>4.357413872670441e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>515767.0159256604</v>
+        <v>570084.4642348486</v>
       </c>
     </row>
     <row r="7">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>415.8401172802826</v>
+        <v>459.7273014650839</v>
       </c>
       <c r="AB7" t="n">
-        <v>568.9707940340927</v>
+        <v>629.0191756016563</v>
       </c>
       <c r="AC7" t="n">
-        <v>514.6690200070029</v>
+        <v>568.9864683161911</v>
       </c>
       <c r="AD7" t="n">
-        <v>415840.1172802827</v>
+        <v>459727.301465084</v>
       </c>
       <c r="AE7" t="n">
-        <v>568970.7940340927</v>
+        <v>629019.1756016563</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.150886643829188e-06</v>
+        <v>4.367043516587945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.802734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>514669.0200070029</v>
+        <v>568986.4683161911</v>
       </c>
     </row>
   </sheetData>
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.3300183211618</v>
+        <v>486.5160610176869</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.6884217577235</v>
+        <v>665.6727382581892</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.4051758917489</v>
+        <v>602.1418663963829</v>
       </c>
       <c r="AD2" t="n">
-        <v>446330.0183211618</v>
+        <v>486516.0610176869</v>
       </c>
       <c r="AE2" t="n">
-        <v>610688.4217577236</v>
+        <v>665672.7382581892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987839084971667e-06</v>
+        <v>4.426529369468765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1650390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>552405.1758917489</v>
+        <v>602141.8663963828</v>
       </c>
     </row>
     <row r="3">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.6405965267087</v>
+        <v>387.741298368662</v>
       </c>
       <c r="AB3" t="n">
-        <v>475.6572009885442</v>
+        <v>530.5247503668119</v>
       </c>
       <c r="AC3" t="n">
-        <v>430.2611453152711</v>
+        <v>479.8922127879662</v>
       </c>
       <c r="AD3" t="n">
-        <v>347640.5965267087</v>
+        <v>387741.298368662</v>
       </c>
       <c r="AE3" t="n">
-        <v>475657.2009885442</v>
+        <v>530524.7503668119</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243832552358918e-06</v>
+        <v>4.996576819661629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.118489583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>430261.1453152711</v>
+        <v>479892.2127879662</v>
       </c>
     </row>
     <row r="4">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.7238672451887</v>
+        <v>389.8245690871422</v>
       </c>
       <c r="AB4" t="n">
-        <v>478.5076238929861</v>
+        <v>533.3751732712539</v>
       </c>
       <c r="AC4" t="n">
-        <v>432.8395278583068</v>
+        <v>482.470595331002</v>
       </c>
       <c r="AD4" t="n">
-        <v>349723.8672451887</v>
+        <v>389824.5690871421</v>
       </c>
       <c r="AE4" t="n">
-        <v>478507.6238929861</v>
+        <v>533375.1732712538</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.245959301760037e-06</v>
+        <v>5.001312675172632e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.111979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>432839.5278583068</v>
+        <v>482470.595331002</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1609.319411253899</v>
+        <v>1704.251913020062</v>
       </c>
       <c r="AB2" t="n">
-        <v>2201.941816639211</v>
+        <v>2331.83265368207</v>
       </c>
       <c r="AC2" t="n">
-        <v>1991.791580103913</v>
+        <v>2109.285817962337</v>
       </c>
       <c r="AD2" t="n">
-        <v>1609319.411253899</v>
+        <v>1704251.913020062</v>
       </c>
       <c r="AE2" t="n">
-        <v>2201941.816639211</v>
+        <v>2331832.653682069</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052326239144753e-06</v>
+        <v>1.989700220513397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1991791.580103913</v>
+        <v>2109285.817962337</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>869.6048911737939</v>
+        <v>928.9057914657325</v>
       </c>
       <c r="AB3" t="n">
-        <v>1189.831776364171</v>
+        <v>1270.969884314682</v>
       </c>
       <c r="AC3" t="n">
-        <v>1076.275901567359</v>
+        <v>1149.670302373124</v>
       </c>
       <c r="AD3" t="n">
-        <v>869604.8911737939</v>
+        <v>928905.7914657325</v>
       </c>
       <c r="AE3" t="n">
-        <v>1189831.77636417</v>
+        <v>1270969.884314682</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544126513542219e-06</v>
+        <v>2.919578311562863e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.08951822916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1076275.901567359</v>
+        <v>1149670.302373124</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>728.4636622136004</v>
+        <v>775.9726730325187</v>
       </c>
       <c r="AB4" t="n">
-        <v>996.7161201892711</v>
+        <v>1061.720044741348</v>
       </c>
       <c r="AC4" t="n">
-        <v>901.5909325782669</v>
+        <v>960.3909738046747</v>
       </c>
       <c r="AD4" t="n">
-        <v>728463.6622136004</v>
+        <v>775972.6730325187</v>
       </c>
       <c r="AE4" t="n">
-        <v>996716.1201892712</v>
+        <v>1061720.044741348</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.724076789109995e-06</v>
+        <v>3.259821754765081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.036458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>901590.9325782669</v>
+        <v>960390.9738046747</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>654.8276121761409</v>
+        <v>702.4218743410798</v>
       </c>
       <c r="AB5" t="n">
-        <v>895.9640279347659</v>
+        <v>961.084597139492</v>
       </c>
       <c r="AC5" t="n">
-        <v>810.454478602082</v>
+        <v>869.3600320792021</v>
       </c>
       <c r="AD5" t="n">
-        <v>654827.6121761409</v>
+        <v>702421.8743410798</v>
       </c>
       <c r="AE5" t="n">
-        <v>895964.0279347659</v>
+        <v>961084.5971394919</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.825250960001027e-06</v>
+        <v>3.451118201288881e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.53515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>810454.478602082</v>
+        <v>869360.0320792021</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>620.3702435415697</v>
+        <v>667.7939135059165</v>
       </c>
       <c r="AB6" t="n">
-        <v>848.8179360171282</v>
+        <v>913.7050934470075</v>
       </c>
       <c r="AC6" t="n">
-        <v>767.8079435271081</v>
+        <v>826.5023617215771</v>
       </c>
       <c r="AD6" t="n">
-        <v>620370.2435415697</v>
+        <v>667793.9135059165</v>
       </c>
       <c r="AE6" t="n">
-        <v>848817.9360171282</v>
+        <v>913705.0934470075</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.88325620840213e-06</v>
+        <v>3.560792417555128e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.273111979166666</v>
       </c>
       <c r="AH6" t="n">
-        <v>767807.9435271082</v>
+        <v>826502.3617215771</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>594.8756575275692</v>
+        <v>642.2993274919161</v>
       </c>
       <c r="AB7" t="n">
-        <v>813.935118691018</v>
+        <v>878.8222761208974</v>
       </c>
       <c r="AC7" t="n">
-        <v>736.2542933282606</v>
+        <v>794.9487115227294</v>
       </c>
       <c r="AD7" t="n">
-        <v>594875.6575275692</v>
+        <v>642299.327491916</v>
       </c>
       <c r="AE7" t="n">
-        <v>813935.1186910181</v>
+        <v>878822.2761208974</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.92412789333162e-06</v>
+        <v>3.638071114495206e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.097330729166666</v>
       </c>
       <c r="AH7" t="n">
-        <v>736254.2933282605</v>
+        <v>794948.7115227294</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>564.0870224691608</v>
+        <v>623.3024923979768</v>
       </c>
       <c r="AB8" t="n">
-        <v>771.8087499053892</v>
+        <v>852.8299682641543</v>
       </c>
       <c r="AC8" t="n">
-        <v>698.1484060548017</v>
+        <v>771.4370730474006</v>
       </c>
       <c r="AD8" t="n">
-        <v>564087.0224691608</v>
+        <v>623302.4923979768</v>
       </c>
       <c r="AE8" t="n">
-        <v>771808.7499053892</v>
+        <v>852829.9682641543</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.95255620814206e-06</v>
+        <v>3.69182233929896e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.978515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>698148.4060548018</v>
+        <v>771437.0730474007</v>
       </c>
     </row>
     <row r="9">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>546.7612857813804</v>
+        <v>594.2702070917478</v>
       </c>
       <c r="AB9" t="n">
-        <v>748.1029126116108</v>
+        <v>813.1067146941391</v>
       </c>
       <c r="AC9" t="n">
-        <v>676.70502060099</v>
+        <v>735.5049510461714</v>
       </c>
       <c r="AD9" t="n">
-        <v>546761.2857813804</v>
+        <v>594270.2070917478</v>
       </c>
       <c r="AE9" t="n">
-        <v>748102.9126116108</v>
+        <v>813106.7146941391</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.974475683197923e-06</v>
+        <v>3.73326688636987e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>676705.02060099</v>
+        <v>735504.9510461714</v>
       </c>
     </row>
     <row r="10">
@@ -10495,28 +10495,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>529.3198803083038</v>
+        <v>576.8288016186713</v>
       </c>
       <c r="AB10" t="n">
-        <v>724.238812182844</v>
+        <v>789.2426142653723</v>
       </c>
       <c r="AC10" t="n">
-        <v>655.1184764236693</v>
+        <v>713.9184068688508</v>
       </c>
       <c r="AD10" t="n">
-        <v>529319.8803083039</v>
+        <v>576828.8016186713</v>
       </c>
       <c r="AE10" t="n">
-        <v>724238.8121828439</v>
+        <v>789242.6142653723</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.99534225770525e-06</v>
+        <v>3.772720647336935e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.8076171875</v>
       </c>
       <c r="AH10" t="n">
-        <v>655118.4764236694</v>
+        <v>713918.4068688507</v>
       </c>
     </row>
     <row r="11">
@@ -10601,28 +10601,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>513.3766439232135</v>
+        <v>560.8855652335808</v>
       </c>
       <c r="AB11" t="n">
-        <v>702.4245727948149</v>
+        <v>767.4283748773433</v>
       </c>
       <c r="AC11" t="n">
-        <v>635.3861574263567</v>
+        <v>694.1860878715379</v>
       </c>
       <c r="AD11" t="n">
-        <v>513376.6439232134</v>
+        <v>560885.5652335808</v>
       </c>
       <c r="AE11" t="n">
-        <v>702424.5727948149</v>
+        <v>767428.3748773433</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.010561456543163e-06</v>
+        <v>3.801496555565208e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.7490234375</v>
       </c>
       <c r="AH11" t="n">
-        <v>635386.1574263567</v>
+        <v>694186.0878715379</v>
       </c>
     </row>
     <row r="12">
@@ -10707,28 +10707,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>507.1140501798725</v>
+        <v>554.6229714902398</v>
       </c>
       <c r="AB12" t="n">
-        <v>693.8558157490393</v>
+        <v>758.8596178315676</v>
       </c>
       <c r="AC12" t="n">
-        <v>627.6351905267038</v>
+        <v>686.435120971885</v>
       </c>
       <c r="AD12" t="n">
-        <v>507114.0501798725</v>
+        <v>554622.9714902398</v>
       </c>
       <c r="AE12" t="n">
-        <v>693855.8157490393</v>
+        <v>758859.6178315675</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.016208832212577e-06</v>
+        <v>3.812174408304001e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.726236979166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>627635.1905267038</v>
+        <v>686435.120971885</v>
       </c>
     </row>
     <row r="13">
@@ -10813,28 +10813,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>506.3288590431564</v>
+        <v>553.8377803535237</v>
       </c>
       <c r="AB13" t="n">
-        <v>692.781482595596</v>
+        <v>757.7852846781244</v>
       </c>
       <c r="AC13" t="n">
-        <v>626.6633902215891</v>
+        <v>685.4633206667703</v>
       </c>
       <c r="AD13" t="n">
-        <v>506328.8590431564</v>
+        <v>553837.7803535237</v>
       </c>
       <c r="AE13" t="n">
-        <v>692781.482595596</v>
+        <v>757785.2846781244</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.019176097394812e-06</v>
+        <v>3.81778480550574e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.71484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>626663.3902215891</v>
+        <v>685463.3206667703</v>
       </c>
     </row>
   </sheetData>
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.1832973305419</v>
+        <v>412.0959013999641</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.9234099239142</v>
+        <v>563.8477926834942</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.4977371171613</v>
+        <v>510.0349507151281</v>
       </c>
       <c r="AD2" t="n">
-        <v>363183.2973305419</v>
+        <v>412095.9013999641</v>
       </c>
       <c r="AE2" t="n">
-        <v>496923.4099239142</v>
+        <v>563847.7926834942</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.132947113004068e-06</v>
+        <v>4.889923626908881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.741861979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>449497.7371171613</v>
+        <v>510034.9507151281</v>
       </c>
     </row>
     <row r="3">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.8821740716177</v>
+        <v>367.9952786647921</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.9910998222963</v>
+        <v>503.5073750750692</v>
       </c>
       <c r="AC3" t="n">
-        <v>407.0445808217308</v>
+        <v>455.4533378749431</v>
       </c>
       <c r="AD3" t="n">
-        <v>328882.1740716177</v>
+        <v>367995.2786647921</v>
       </c>
       <c r="AE3" t="n">
-        <v>449991.0998222964</v>
+        <v>503507.3750750692</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.251393263103219e-06</v>
+        <v>5.161469332076645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>407044.5808217308</v>
+        <v>455453.3378749432</v>
       </c>
     </row>
   </sheetData>
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1116.938489526613</v>
+        <v>1196.62018333864</v>
       </c>
       <c r="AB2" t="n">
-        <v>1528.244517218755</v>
+        <v>1637.268526000604</v>
       </c>
       <c r="AC2" t="n">
-        <v>1382.391005400047</v>
+        <v>1481.009915799914</v>
       </c>
       <c r="AD2" t="n">
-        <v>1116938.489526613</v>
+        <v>1196620.18333864</v>
       </c>
       <c r="AE2" t="n">
-        <v>1528244.517218755</v>
+        <v>1637268.526000604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286210183645239e-06</v>
+        <v>2.520954184604588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5927734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1382391.005400047</v>
+        <v>1481009.915799914</v>
       </c>
     </row>
     <row r="3">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>685.5504171438171</v>
+        <v>742.3562782765098</v>
       </c>
       <c r="AB3" t="n">
-        <v>938.0003250860366</v>
+        <v>1015.724610385508</v>
       </c>
       <c r="AC3" t="n">
-        <v>848.4788905515492</v>
+        <v>918.7852791487589</v>
       </c>
       <c r="AD3" t="n">
-        <v>685550.4171438171</v>
+        <v>742356.2782765098</v>
       </c>
       <c r="AE3" t="n">
-        <v>938000.3250860366</v>
+        <v>1015724.610385508</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731134418158034e-06</v>
+        <v>3.392999535426028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.357096354166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>848478.8905515491</v>
+        <v>918785.279148759</v>
       </c>
     </row>
     <row r="4">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>585.5446485487942</v>
+        <v>631.2111520699939</v>
       </c>
       <c r="AB4" t="n">
-        <v>801.1680205511954</v>
+        <v>863.6509453328482</v>
       </c>
       <c r="AC4" t="n">
-        <v>724.7056691161675</v>
+        <v>781.225311251995</v>
       </c>
       <c r="AD4" t="n">
-        <v>585544.6485487942</v>
+        <v>631211.1520699939</v>
       </c>
       <c r="AE4" t="n">
-        <v>801168.0205511954</v>
+        <v>863650.9453328482</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.890057254775554e-06</v>
+        <v>3.704486098893225e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.5693359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>724705.6691161676</v>
+        <v>781225.311251995</v>
       </c>
     </row>
     <row r="5">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>542.2610860450887</v>
+        <v>587.7569973656962</v>
       </c>
       <c r="AB5" t="n">
-        <v>741.945540797616</v>
+        <v>804.1950538044218</v>
       </c>
       <c r="AC5" t="n">
-        <v>671.1352997109976</v>
+        <v>727.4438065641739</v>
       </c>
       <c r="AD5" t="n">
-        <v>542261.0860450887</v>
+        <v>587756.9973656961</v>
       </c>
       <c r="AE5" t="n">
-        <v>741945.540797616</v>
+        <v>804195.0538044218</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.972653343938072e-06</v>
+        <v>3.866373292179245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.211263020833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>671135.2997109976</v>
+        <v>727443.8065641739</v>
       </c>
     </row>
     <row r="6">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>513.2207656465824</v>
+        <v>558.7166769671899</v>
       </c>
       <c r="AB6" t="n">
-        <v>702.2112932598642</v>
+        <v>764.4608062666699</v>
       </c>
       <c r="AC6" t="n">
-        <v>635.1932329908819</v>
+        <v>691.5017398440584</v>
       </c>
       <c r="AD6" t="n">
-        <v>513220.7656465824</v>
+        <v>558716.6769671899</v>
       </c>
       <c r="AE6" t="n">
-        <v>702211.2932598642</v>
+        <v>764460.8062666699</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.023007104319077e-06</v>
+        <v>3.965065966640362e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.006184895833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>635193.2329908819</v>
+        <v>691501.7398440584</v>
       </c>
     </row>
     <row r="7">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>477.6223636578073</v>
+        <v>523.2035263244353</v>
       </c>
       <c r="AB7" t="n">
-        <v>653.503989168166</v>
+        <v>715.8701468276209</v>
       </c>
       <c r="AC7" t="n">
-        <v>591.1344856405648</v>
+        <v>647.5485047444536</v>
       </c>
       <c r="AD7" t="n">
-        <v>477622.3636578073</v>
+        <v>523203.5263244353</v>
       </c>
       <c r="AE7" t="n">
-        <v>653503.989168166</v>
+        <v>715870.1468276209</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.059727534320245e-06</v>
+        <v>4.037037501968724e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>591134.4856405648</v>
+        <v>647548.5047444536</v>
       </c>
     </row>
     <row r="8">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>459.4683681734925</v>
+        <v>505.0495308401205</v>
       </c>
       <c r="AB8" t="n">
-        <v>628.6648916487702</v>
+        <v>691.0310493082253</v>
       </c>
       <c r="AC8" t="n">
-        <v>568.665996726528</v>
+        <v>625.0800158304165</v>
       </c>
       <c r="AD8" t="n">
-        <v>459468.3681734925</v>
+        <v>505049.5308401205</v>
       </c>
       <c r="AE8" t="n">
-        <v>628664.8916487702</v>
+        <v>691031.0493082253</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.084804901150311e-06</v>
+        <v>4.086188794388095e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.7685546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>568665.9967265279</v>
+        <v>625080.0158304166</v>
       </c>
     </row>
     <row r="9">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>455.083183310368</v>
+        <v>500.664345976996</v>
       </c>
       <c r="AB9" t="n">
-        <v>622.6648882583409</v>
+        <v>685.031045917796</v>
       </c>
       <c r="AC9" t="n">
-        <v>563.2386252386235</v>
+        <v>619.6526443425122</v>
       </c>
       <c r="AD9" t="n">
-        <v>455083.183310368</v>
+        <v>500664.345976996</v>
       </c>
       <c r="AE9" t="n">
-        <v>622664.8882583409</v>
+        <v>685031.045917796</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.089382515730402e-06</v>
+        <v>4.095160855702741e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.752278645833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>563238.6252386235</v>
+        <v>619652.6443425122</v>
       </c>
     </row>
     <row r="10">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>457.3553672796444</v>
+        <v>502.9365299462724</v>
       </c>
       <c r="AB10" t="n">
-        <v>625.773790606787</v>
+        <v>688.139948266242</v>
       </c>
       <c r="AC10" t="n">
-        <v>566.0508183103057</v>
+        <v>622.4648374141943</v>
       </c>
       <c r="AD10" t="n">
-        <v>457355.3672796444</v>
+        <v>502936.5299462724</v>
       </c>
       <c r="AE10" t="n">
-        <v>625773.790606787</v>
+        <v>688139.9482662419</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.089581542451275e-06</v>
+        <v>4.095550945325117e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.750651041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>566050.8183103057</v>
+        <v>622464.8374141944</v>
       </c>
     </row>
   </sheetData>
@@ -12658,28 +12658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1343.96918249814</v>
+        <v>1425.490323360172</v>
       </c>
       <c r="AB2" t="n">
-        <v>1838.877927229687</v>
+        <v>1950.418748616029</v>
       </c>
       <c r="AC2" t="n">
-        <v>1663.377998736265</v>
+        <v>1764.27352067802</v>
       </c>
       <c r="AD2" t="n">
-        <v>1343969.18249814</v>
+        <v>1425490.323360172</v>
       </c>
       <c r="AE2" t="n">
-        <v>1838877.927229686</v>
+        <v>1950418.748616029</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163408984865176e-06</v>
+        <v>2.236890039940078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.64095052083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1663377.998736265</v>
+        <v>1764273.52067802</v>
       </c>
     </row>
     <row r="3">
@@ -12764,28 +12764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>771.0387812456519</v>
+        <v>829.2681675756749</v>
       </c>
       <c r="AB3" t="n">
-        <v>1054.969276330613</v>
+        <v>1134.641291606571</v>
       </c>
       <c r="AC3" t="n">
-        <v>954.2844892562977</v>
+        <v>1026.352719214694</v>
       </c>
       <c r="AD3" t="n">
-        <v>771038.7812456519</v>
+        <v>829268.1675756748</v>
       </c>
       <c r="AE3" t="n">
-        <v>1054969.276330613</v>
+        <v>1134641.291606572</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.631814680749547e-06</v>
+        <v>3.137495114686319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.724934895833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>954284.4892562977</v>
+        <v>1026352.719214694</v>
       </c>
     </row>
     <row r="4">
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>650.1406523281095</v>
+        <v>708.2846978035608</v>
       </c>
       <c r="AB4" t="n">
-        <v>889.5511226966142</v>
+        <v>969.1063708503748</v>
       </c>
       <c r="AC4" t="n">
-        <v>804.6536120392904</v>
+        <v>876.6162189657483</v>
       </c>
       <c r="AD4" t="n">
-        <v>650140.6523281095</v>
+        <v>708284.6978035608</v>
       </c>
       <c r="AE4" t="n">
-        <v>889551.1226966142</v>
+        <v>969106.3708503748</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.805077986658482e-06</v>
+        <v>3.470629006822886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.792317708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>804653.6120392904</v>
+        <v>876616.2189657483</v>
       </c>
     </row>
     <row r="5">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>598.846272665569</v>
+        <v>645.3445303835666</v>
       </c>
       <c r="AB5" t="n">
-        <v>819.3678894940065</v>
+        <v>882.9888570621238</v>
       </c>
       <c r="AC5" t="n">
-        <v>741.1685681107532</v>
+        <v>798.7176398267583</v>
       </c>
       <c r="AD5" t="n">
-        <v>598846.272665569</v>
+        <v>645344.5303835666</v>
       </c>
       <c r="AE5" t="n">
-        <v>819367.8894940065</v>
+        <v>882988.8570621237</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.896146038272971e-06</v>
+        <v>3.645725830264391e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.369140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>741168.5681107532</v>
+        <v>798717.6398267583</v>
       </c>
     </row>
     <row r="6">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>566.8478408683461</v>
+        <v>613.3460985863438</v>
       </c>
       <c r="AB6" t="n">
-        <v>775.586223437866</v>
+        <v>839.2071910059834</v>
       </c>
       <c r="AC6" t="n">
-        <v>701.5653628150566</v>
+        <v>759.1144345310616</v>
       </c>
       <c r="AD6" t="n">
-        <v>566847.8408683462</v>
+        <v>613346.0985863438</v>
       </c>
       <c r="AE6" t="n">
-        <v>775586.223437866</v>
+        <v>839207.1910059834</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.951040377736522e-06</v>
+        <v>3.751271345893477e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.134765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>701565.3628150566</v>
+        <v>759114.4345310617</v>
       </c>
     </row>
     <row r="7">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>531.5361080348366</v>
+        <v>589.5948126557163</v>
       </c>
       <c r="AB7" t="n">
-        <v>727.2711527313528</v>
+        <v>806.7096337629158</v>
       </c>
       <c r="AC7" t="n">
-        <v>657.8614146461455</v>
+        <v>729.7183985406646</v>
       </c>
       <c r="AD7" t="n">
-        <v>531536.1080348366</v>
+        <v>589594.8126557163</v>
       </c>
       <c r="AE7" t="n">
-        <v>727271.1527313528</v>
+        <v>806709.6337629159</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.988579135629004e-06</v>
+        <v>3.823447231359194e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.980143229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>657861.4146461454</v>
+        <v>729718.3985406646</v>
       </c>
     </row>
     <row r="8">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>511.1895097356343</v>
+        <v>557.7730187996525</v>
       </c>
       <c r="AB8" t="n">
-        <v>699.4320393098185</v>
+        <v>763.169651530585</v>
       </c>
       <c r="AC8" t="n">
-        <v>632.6792271371213</v>
+        <v>690.3338111038386</v>
       </c>
       <c r="AD8" t="n">
-        <v>511189.5097356343</v>
+        <v>557773.0187996525</v>
       </c>
       <c r="AE8" t="n">
-        <v>699432.0393098185</v>
+        <v>763169.651530585</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.016952586399685e-06</v>
+        <v>3.878000952581333e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.867838541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>632679.2271371213</v>
+        <v>690333.8111038386</v>
       </c>
     </row>
     <row r="9">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>494.8460591783931</v>
+        <v>541.4295682424115</v>
       </c>
       <c r="AB9" t="n">
-        <v>677.0702092352499</v>
+        <v>740.8078214560165</v>
       </c>
       <c r="AC9" t="n">
-        <v>612.4515787398439</v>
+        <v>670.1061627065611</v>
       </c>
       <c r="AD9" t="n">
-        <v>494846.0591783932</v>
+        <v>541429.5682424115</v>
       </c>
       <c r="AE9" t="n">
-        <v>677070.2092352499</v>
+        <v>740807.8214560165</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.035770716979552e-06</v>
+        <v>3.91418263023038e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.794596354166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>612451.5787398438</v>
+        <v>670106.1627065612</v>
       </c>
     </row>
     <row r="10">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>480.3989864148729</v>
+        <v>526.9824954788912</v>
       </c>
       <c r="AB10" t="n">
-        <v>657.3030869203336</v>
+        <v>721.0406991411003</v>
       </c>
       <c r="AC10" t="n">
-        <v>594.5710028353328</v>
+        <v>652.2255868020501</v>
       </c>
       <c r="AD10" t="n">
-        <v>480398.9864148729</v>
+        <v>526982.4954788912</v>
       </c>
       <c r="AE10" t="n">
-        <v>657303.0869203336</v>
+        <v>721040.6991411003</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.051078729938305e-06</v>
+        <v>3.943615393913803e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.737630208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>594571.0028353328</v>
+        <v>652225.5868020501</v>
       </c>
     </row>
     <row r="11">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>481.3498513088488</v>
+        <v>527.9333603728671</v>
       </c>
       <c r="AB11" t="n">
-        <v>658.6041022174701</v>
+        <v>722.3417144382367</v>
       </c>
       <c r="AC11" t="n">
-        <v>595.747851058497</v>
+        <v>653.4024350252142</v>
       </c>
       <c r="AD11" t="n">
-        <v>481349.8513088488</v>
+        <v>527933.3603728671</v>
       </c>
       <c r="AE11" t="n">
-        <v>658604.1022174701</v>
+        <v>722341.7144382368</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.053028795283369e-06</v>
+        <v>3.947364790561372e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.7294921875</v>
       </c>
       <c r="AH11" t="n">
-        <v>595747.851058497</v>
+        <v>653402.4350252142</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1941.186605524585</v>
+        <v>2037.844197693521</v>
       </c>
       <c r="AB2" t="n">
-        <v>2656.017152787667</v>
+        <v>2788.268334625217</v>
       </c>
       <c r="AC2" t="n">
-        <v>2402.530603469098</v>
+        <v>2522.159918127772</v>
       </c>
       <c r="AD2" t="n">
-        <v>1941186.605524585</v>
+        <v>2037844.19769352</v>
       </c>
       <c r="AE2" t="n">
-        <v>2656017.152787667</v>
+        <v>2788268.334625217</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.494059418941418e-07</v>
+        <v>1.768671260702945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.13444010416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2402530.603469098</v>
+        <v>2522159.918127772</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>964.9304989582006</v>
+        <v>1025.309524809028</v>
       </c>
       <c r="AB3" t="n">
-        <v>1320.260478403804</v>
+        <v>1402.873725307529</v>
       </c>
       <c r="AC3" t="n">
-        <v>1194.256671342164</v>
+        <v>1268.985425909817</v>
       </c>
       <c r="AD3" t="n">
-        <v>964930.4989582006</v>
+        <v>1025309.524809028</v>
       </c>
       <c r="AE3" t="n">
-        <v>1320260.478403804</v>
+        <v>1402873.725307529</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459306952320635e-06</v>
+        <v>2.718578168959146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.49641927083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1194256.671342164</v>
+        <v>1268985.425909817</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>794.9730730562244</v>
+        <v>855.26675805248</v>
       </c>
       <c r="AB4" t="n">
-        <v>1087.717230292271</v>
+        <v>1170.213710073799</v>
       </c>
       <c r="AC4" t="n">
-        <v>983.9070244538972</v>
+        <v>1058.530155989612</v>
       </c>
       <c r="AD4" t="n">
-        <v>794973.0730562244</v>
+        <v>855266.7580524799</v>
       </c>
       <c r="AE4" t="n">
-        <v>1087717.230292271</v>
+        <v>1170213.710073799</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.651766820597153e-06</v>
+        <v>3.077116306165483e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.274088541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>983907.0244538971</v>
+        <v>1058530.155989612</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>712.6753643110266</v>
+        <v>773.0543006533027</v>
       </c>
       <c r="AB5" t="n">
-        <v>975.1138744684249</v>
+        <v>1057.726998902602</v>
       </c>
       <c r="AC5" t="n">
-        <v>882.050374870076</v>
+        <v>956.7790186565036</v>
       </c>
       <c r="AD5" t="n">
-        <v>712675.3643110265</v>
+        <v>773054.3006533027</v>
       </c>
       <c r="AE5" t="n">
-        <v>975113.8744684249</v>
+        <v>1057726.998902602</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.756984489415319e-06</v>
+        <v>3.273128842789778e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.717447916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>882050.374870076</v>
+        <v>956779.0186565035</v>
       </c>
     </row>
     <row r="6">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>673.0648577103433</v>
+        <v>721.3510281218009</v>
       </c>
       <c r="AB6" t="n">
-        <v>920.9170318451506</v>
+        <v>986.9843004376011</v>
       </c>
       <c r="AC6" t="n">
-        <v>833.0260028410208</v>
+        <v>892.7879040450015</v>
       </c>
       <c r="AD6" t="n">
-        <v>673064.8577103433</v>
+        <v>721351.028121801</v>
       </c>
       <c r="AE6" t="n">
-        <v>920917.0318451506</v>
+        <v>986984.3004376011</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.820322137997273e-06</v>
+        <v>3.391122078163795e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.414713541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>833026.0028410208</v>
+        <v>892787.9040450015</v>
       </c>
     </row>
     <row r="7">
@@ -14439,28 +14439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>645.2212033255025</v>
+        <v>693.5073737369601</v>
       </c>
       <c r="AB7" t="n">
-        <v>882.8201155404744</v>
+        <v>948.8873841329249</v>
       </c>
       <c r="AC7" t="n">
-        <v>798.565002759105</v>
+        <v>858.3269039630858</v>
       </c>
       <c r="AD7" t="n">
-        <v>645221.2033255026</v>
+        <v>693507.3737369601</v>
       </c>
       <c r="AE7" t="n">
-        <v>882820.1155404744</v>
+        <v>948887.384132925</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.863802069118912e-06</v>
+        <v>3.472121892046107e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.219401041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>798565.0027591051</v>
+        <v>858326.9039630857</v>
       </c>
     </row>
     <row r="8">
@@ -14545,28 +14545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>625.9430986479327</v>
+        <v>674.2292690593902</v>
       </c>
       <c r="AB8" t="n">
-        <v>856.4429622306697</v>
+        <v>922.5102308231201</v>
       </c>
       <c r="AC8" t="n">
-        <v>774.7052479406208</v>
+        <v>834.4671491446015</v>
       </c>
       <c r="AD8" t="n">
-        <v>625943.0986479328</v>
+        <v>674229.2690593902</v>
       </c>
       <c r="AE8" t="n">
-        <v>856442.9622306697</v>
+        <v>922510.2308231201</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.892976914676722e-06</v>
+        <v>3.526472416512593e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.092447916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>774705.2479406208</v>
+        <v>834467.1491446015</v>
       </c>
     </row>
     <row r="9">
@@ -14651,28 +14651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>594.6078610012981</v>
+        <v>654.9014564890028</v>
       </c>
       <c r="AB9" t="n">
-        <v>813.5687076694253</v>
+        <v>896.0650649814042</v>
       </c>
       <c r="AC9" t="n">
-        <v>735.9228520603073</v>
+        <v>810.545872814796</v>
       </c>
       <c r="AD9" t="n">
-        <v>594607.8610012982</v>
+        <v>654901.4564890028</v>
       </c>
       <c r="AE9" t="n">
-        <v>813568.7076694253</v>
+        <v>896065.0649814042</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.920551849349103e-06</v>
+        <v>3.577842428347046e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.975260416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>735922.8520603073</v>
+        <v>810545.8728147959</v>
       </c>
     </row>
     <row r="10">
@@ -14757,28 +14757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>579.7349959013467</v>
+        <v>628.1064176588249</v>
       </c>
       <c r="AB10" t="n">
-        <v>793.2189974951717</v>
+        <v>859.4029107402714</v>
       </c>
       <c r="AC10" t="n">
-        <v>717.5152896640869</v>
+        <v>777.38270311878</v>
       </c>
       <c r="AD10" t="n">
-        <v>579734.9959013467</v>
+        <v>628106.4176588248</v>
       </c>
       <c r="AE10" t="n">
-        <v>793218.9974951717</v>
+        <v>859402.9107402714</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.937680307063688e-06</v>
+        <v>3.609751445937048e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.9052734375</v>
       </c>
       <c r="AH10" t="n">
-        <v>717515.2896640869</v>
+        <v>777382.70311878</v>
       </c>
     </row>
     <row r="11">
@@ -14863,28 +14863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>567.0392080259639</v>
+        <v>615.4106297834422</v>
       </c>
       <c r="AB11" t="n">
-        <v>775.8480604254419</v>
+        <v>842.0319736705414</v>
       </c>
       <c r="AC11" t="n">
-        <v>701.8022104480287</v>
+        <v>761.6696239027219</v>
       </c>
       <c r="AD11" t="n">
-        <v>567039.208025964</v>
+        <v>615410.6297834422</v>
       </c>
       <c r="AE11" t="n">
-        <v>775848.0604254418</v>
+        <v>842031.9736705414</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.95311474148782e-06</v>
+        <v>3.638504626622544e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.843424479166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>701802.2104480288</v>
+        <v>761669.6239027219</v>
       </c>
     </row>
     <row r="12">
@@ -14969,28 +14969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>551.4268185464607</v>
+        <v>599.7982403039389</v>
       </c>
       <c r="AB12" t="n">
-        <v>754.4865003695727</v>
+        <v>820.6704136146723</v>
       </c>
       <c r="AC12" t="n">
-        <v>682.4793677027538</v>
+        <v>742.3467811574469</v>
       </c>
       <c r="AD12" t="n">
-        <v>551426.8185464607</v>
+        <v>599798.2403039389</v>
       </c>
       <c r="AE12" t="n">
-        <v>754486.5003695727</v>
+        <v>820670.4136146723</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.968455063506926e-06</v>
+        <v>3.667082483035567e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.781575520833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>682479.3677027539</v>
+        <v>742346.7811574469</v>
       </c>
     </row>
     <row r="13">
@@ -15075,28 +15075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>540.170716877981</v>
+        <v>588.5421386354591</v>
       </c>
       <c r="AB13" t="n">
-        <v>739.0854054826003</v>
+        <v>805.2693187276999</v>
       </c>
       <c r="AC13" t="n">
-        <v>668.5481316962217</v>
+        <v>728.4155451509146</v>
       </c>
       <c r="AD13" t="n">
-        <v>540170.716877981</v>
+        <v>588542.1386354591</v>
       </c>
       <c r="AE13" t="n">
-        <v>739085.4054826003</v>
+        <v>805269.3187276999</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.977866304009445e-06</v>
+        <v>3.68461491028282e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.744140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>668548.1316962218</v>
+        <v>728415.5451509146</v>
       </c>
     </row>
     <row r="14">
@@ -15181,28 +15181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>533.2929097176801</v>
+        <v>581.6643314751582</v>
       </c>
       <c r="AB14" t="n">
-        <v>729.6748862984393</v>
+        <v>795.858799543539</v>
       </c>
       <c r="AC14" t="n">
-        <v>660.0357392552506</v>
+        <v>719.9031527099437</v>
       </c>
       <c r="AD14" t="n">
-        <v>533292.9097176801</v>
+        <v>581664.3314751582</v>
       </c>
       <c r="AE14" t="n">
-        <v>729674.8862984393</v>
+        <v>795858.7995435391</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.98266603666573e-06</v>
+        <v>3.69355644817892e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.726236979166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>660035.7392552507</v>
+        <v>719903.1527099437</v>
       </c>
     </row>
     <row r="15">
@@ -15287,28 +15287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>533.2236609206848</v>
+        <v>581.595082678163</v>
       </c>
       <c r="AB15" t="n">
-        <v>729.5801370393491</v>
+        <v>795.7640502844489</v>
       </c>
       <c r="AC15" t="n">
-        <v>659.9500327324663</v>
+        <v>719.8174461871594</v>
       </c>
       <c r="AD15" t="n">
-        <v>533223.6609206848</v>
+        <v>581595.082678163</v>
       </c>
       <c r="AE15" t="n">
-        <v>729580.1370393491</v>
+        <v>795764.0502844489</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.985489408816486e-06</v>
+        <v>3.698816176353096e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.71484375</v>
       </c>
       <c r="AH15" t="n">
-        <v>659950.0327324664</v>
+        <v>719817.4461871594</v>
       </c>
     </row>
   </sheetData>
@@ -15584,28 +15584,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>918.4896019886521</v>
+        <v>985.2125029233064</v>
       </c>
       <c r="AB2" t="n">
-        <v>1256.717994342293</v>
+        <v>1348.011211007726</v>
       </c>
       <c r="AC2" t="n">
-        <v>1136.778592777046</v>
+        <v>1219.358912974765</v>
       </c>
       <c r="AD2" t="n">
-        <v>918489.6019886521</v>
+        <v>985212.5029233064</v>
       </c>
       <c r="AE2" t="n">
-        <v>1256717.994342292</v>
+        <v>1348011.211007726</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.424293198417287e-06</v>
+        <v>2.854991948921179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.6357421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1136778.592777046</v>
+        <v>1219358.912974766</v>
       </c>
     </row>
     <row r="3">
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>603.7161591340044</v>
+        <v>648.1981825989919</v>
       </c>
       <c r="AB3" t="n">
-        <v>826.031083004348</v>
+        <v>886.8933499175189</v>
       </c>
       <c r="AC3" t="n">
-        <v>747.1958357843187</v>
+        <v>802.2494933640247</v>
       </c>
       <c r="AD3" t="n">
-        <v>603716.1591340045</v>
+        <v>648198.1825989919</v>
       </c>
       <c r="AE3" t="n">
-        <v>826031.083004348</v>
+        <v>886893.3499175189</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.839088429695579e-06</v>
+        <v>3.686447892870345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>747195.8357843186</v>
+        <v>802249.4933640247</v>
       </c>
     </row>
     <row r="4">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>520.6558844042237</v>
+        <v>565.0525670146392</v>
       </c>
       <c r="AB4" t="n">
-        <v>712.3843507583582</v>
+        <v>773.1298505493315</v>
       </c>
       <c r="AC4" t="n">
-        <v>644.3953881596958</v>
+        <v>699.3434227074628</v>
       </c>
       <c r="AD4" t="n">
-        <v>520655.8844042236</v>
+        <v>565052.5670146391</v>
       </c>
       <c r="AE4" t="n">
-        <v>712384.3507583583</v>
+        <v>773129.8505493315</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.984989648748547e-06</v>
+        <v>3.978906500548095e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.347981770833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>644395.3881596958</v>
+        <v>699343.4227074628</v>
       </c>
     </row>
     <row r="5">
@@ -15902,28 +15902,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.4031554622633</v>
+        <v>525.7998380726789</v>
       </c>
       <c r="AB5" t="n">
-        <v>658.6770353117851</v>
+        <v>719.4225351027583</v>
       </c>
       <c r="AC5" t="n">
-        <v>595.8138235206528</v>
+        <v>650.76185806842</v>
       </c>
       <c r="AD5" t="n">
-        <v>481403.1554622633</v>
+        <v>525799.8380726789</v>
       </c>
       <c r="AE5" t="n">
-        <v>658677.0353117851</v>
+        <v>719422.5351027583</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.062267405385813e-06</v>
+        <v>4.133809559325076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.035481770833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>595813.8235206528</v>
+        <v>650761.85806842</v>
       </c>
     </row>
     <row r="6">
@@ -16008,28 +16008,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>442.7775186615783</v>
+        <v>487.2594526180143</v>
       </c>
       <c r="AB6" t="n">
-        <v>605.8277349982576</v>
+        <v>666.6898794418801</v>
       </c>
       <c r="AC6" t="n">
-        <v>548.0083862545896</v>
+        <v>603.061933053069</v>
       </c>
       <c r="AD6" t="n">
-        <v>442777.5186615782</v>
+        <v>487259.4526180144</v>
       </c>
       <c r="AE6" t="n">
-        <v>605827.7349982576</v>
+        <v>666689.87944188</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.107982441920902e-06</v>
+        <v>4.22544522914176e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.861328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>548008.3862545895</v>
+        <v>603061.9330530689</v>
       </c>
     </row>
     <row r="7">
@@ -16114,28 +16114,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.328064011304</v>
+        <v>472.8099979677402</v>
       </c>
       <c r="AB7" t="n">
-        <v>586.0573536808032</v>
+        <v>646.9194981244257</v>
       </c>
       <c r="AC7" t="n">
-        <v>530.1248623821684</v>
+        <v>585.1784091806479</v>
       </c>
       <c r="AD7" t="n">
-        <v>428328.064011304</v>
+        <v>472809.9979677402</v>
       </c>
       <c r="AE7" t="n">
-        <v>586057.3536808032</v>
+        <v>646919.4981244256</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.129261824183338e-06</v>
+        <v>4.268099694602089e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.783203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>530124.8623821684</v>
+        <v>585178.4091806479</v>
       </c>
     </row>
     <row r="8">
@@ -16220,28 +16220,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>430.2940752982595</v>
+        <v>474.7760092546956</v>
       </c>
       <c r="AB8" t="n">
-        <v>588.7473370579122</v>
+        <v>649.6094815015348</v>
       </c>
       <c r="AC8" t="n">
-        <v>532.5581175211817</v>
+        <v>587.6116643196611</v>
       </c>
       <c r="AD8" t="n">
-        <v>430294.0752982595</v>
+        <v>474776.0092546956</v>
       </c>
       <c r="AE8" t="n">
-        <v>588747.3370579123</v>
+        <v>649609.4815015348</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.12895637850493e-06</v>
+        <v>4.267487429547634e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.783203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>532558.1175211817</v>
+        <v>587611.6643196611</v>
       </c>
     </row>
   </sheetData>
@@ -16517,28 +16517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>669.8433333643635</v>
+        <v>722.9843270527031</v>
       </c>
       <c r="AB2" t="n">
-        <v>916.5092001113575</v>
+        <v>989.2190520909249</v>
       </c>
       <c r="AC2" t="n">
-        <v>829.0388483814702</v>
+        <v>894.8093741370257</v>
       </c>
       <c r="AD2" t="n">
-        <v>669843.3333643635</v>
+        <v>722984.327052703</v>
       </c>
       <c r="AE2" t="n">
-        <v>916509.2001113575</v>
+        <v>989219.0520909249</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.66616670546264e-06</v>
+        <v>3.485724946422871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.35970052083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>829038.8483814702</v>
+        <v>894809.3741370257</v>
       </c>
     </row>
     <row r="3">
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.6082561235664</v>
+        <v>514.2745930056263</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.2752219161189</v>
+        <v>703.6531863440898</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.6910603859056</v>
+        <v>636.4975138228588</v>
       </c>
       <c r="AD3" t="n">
-        <v>471608.2561235664</v>
+        <v>514274.5930056263</v>
       </c>
       <c r="AE3" t="n">
-        <v>645275.2219161189</v>
+        <v>703653.1863440898</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025914475349927e-06</v>
+        <v>4.238339778903227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5205078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>583691.0603859057</v>
+        <v>636497.5138228588</v>
       </c>
     </row>
     <row r="4">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>415.8934023762058</v>
+        <v>458.3891470576733</v>
       </c>
       <c r="AB4" t="n">
-        <v>569.0437010531072</v>
+        <v>627.1882537062312</v>
       </c>
       <c r="AC4" t="n">
-        <v>514.7349688824482</v>
+        <v>567.3302870367505</v>
       </c>
       <c r="AD4" t="n">
-        <v>415893.4023762058</v>
+        <v>458389.1470576733</v>
       </c>
       <c r="AE4" t="n">
-        <v>569043.7010531072</v>
+        <v>627188.2537062312</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.151592867837084e-06</v>
+        <v>4.501266835651229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.0224609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>514734.9688824483</v>
+        <v>567330.2870367505</v>
       </c>
     </row>
     <row r="5">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.3760483356675</v>
+        <v>429.9570443631557</v>
       </c>
       <c r="AB5" t="n">
-        <v>530.0249991579745</v>
+        <v>588.2861964637477</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.440157133095</v>
+        <v>532.1409875381094</v>
       </c>
       <c r="AD5" t="n">
-        <v>387376.0483356675</v>
+        <v>429957.0443631557</v>
       </c>
       <c r="AE5" t="n">
-        <v>530024.9991579745</v>
+        <v>588286.1964637478</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.190091818447073e-06</v>
+        <v>4.581809047971502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.880859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>479440.157133095</v>
+        <v>532140.9875381093</v>
       </c>
     </row>
     <row r="6">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>389.6786530348639</v>
+        <v>432.2596490623521</v>
       </c>
       <c r="AB6" t="n">
-        <v>533.175524491165</v>
+        <v>591.4367217969382</v>
       </c>
       <c r="AC6" t="n">
-        <v>482.2900007502759</v>
+        <v>534.9908311552903</v>
       </c>
       <c r="AD6" t="n">
-        <v>389678.6530348639</v>
+        <v>432259.6490623521</v>
       </c>
       <c r="AE6" t="n">
-        <v>533175.5244911649</v>
+        <v>591436.7217969382</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190197876162252e-06</v>
+        <v>4.582030927344286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.880859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>482290.0007502759</v>
+        <v>534990.8311552902</v>
       </c>
     </row>
   </sheetData>
@@ -31195,28 +31195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>516.0800771500153</v>
+        <v>567.4070031644853</v>
       </c>
       <c r="AB2" t="n">
-        <v>706.1235294027816</v>
+        <v>776.351293959943</v>
       </c>
       <c r="AC2" t="n">
-        <v>638.7320908071774</v>
+        <v>702.2574160802898</v>
       </c>
       <c r="AD2" t="n">
-        <v>516080.0771500153</v>
+        <v>567407.0031644853</v>
       </c>
       <c r="AE2" t="n">
-        <v>706123.5294027816</v>
+        <v>776351.293959943</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868172928113215e-06</v>
+        <v>4.061138498869231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.558919270833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>638732.0908071775</v>
+        <v>702257.4160802898</v>
       </c>
     </row>
     <row r="3">
@@ -31301,28 +31301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>382.8706654542134</v>
+        <v>423.8469549197688</v>
       </c>
       <c r="AB3" t="n">
-        <v>523.8605355361044</v>
+        <v>579.926102529184</v>
       </c>
       <c r="AC3" t="n">
-        <v>473.8640212674172</v>
+        <v>524.5787692351948</v>
       </c>
       <c r="AD3" t="n">
-        <v>382870.6654542134</v>
+        <v>423846.9549197688</v>
       </c>
       <c r="AE3" t="n">
-        <v>523860.5355361044</v>
+        <v>579926.1025291841</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.18326528479287e-06</v>
+        <v>4.746103836475081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.1787109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>473864.0212674172</v>
+        <v>524578.7692351949</v>
       </c>
     </row>
     <row r="4">
@@ -31407,28 +31407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.3517573269274</v>
+        <v>407.3280467924828</v>
       </c>
       <c r="AB4" t="n">
-        <v>501.2586366735586</v>
+        <v>557.3242036666383</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.4192159103484</v>
+        <v>504.1339638781261</v>
       </c>
       <c r="AD4" t="n">
-        <v>366351.7573269274</v>
+        <v>407328.0467924828</v>
       </c>
       <c r="AE4" t="n">
-        <v>501258.6366735586</v>
+        <v>557324.2036666382</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.229344250602568e-06</v>
+        <v>4.84627286216953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.009440104166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>453419.2159103485</v>
+        <v>504133.9638781261</v>
       </c>
     </row>
   </sheetData>
@@ -31704,28 +31704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.782499876727</v>
+        <v>352.2590457273583</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.0168623862585</v>
+        <v>481.9763669364715</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.2173583269556</v>
+        <v>435.9772189341334</v>
       </c>
       <c r="AD2" t="n">
-        <v>304782.499876727</v>
+        <v>352259.0457273583</v>
       </c>
       <c r="AE2" t="n">
-        <v>417016.8623862586</v>
+        <v>481976.3669364715</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.232973923152318e-06</v>
+        <v>5.311188685061671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.583984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>377217.3583269556</v>
+        <v>435977.2189341334</v>
       </c>
     </row>
     <row r="3">
@@ -31810,28 +31810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.3051514302479</v>
+        <v>355.7816972808791</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.8367096502042</v>
+        <v>486.7962142004171</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.5772061327283</v>
+        <v>440.3370667399063</v>
       </c>
       <c r="AD3" t="n">
-        <v>308305.1514302479</v>
+        <v>355781.6972808791</v>
       </c>
       <c r="AE3" t="n">
-        <v>421836.7096502042</v>
+        <v>486796.2142004171</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.232973923152318e-06</v>
+        <v>5.311188685061671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.583984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>381577.2061327283</v>
+        <v>440337.0667399063</v>
       </c>
     </row>
   </sheetData>
@@ -32107,28 +32107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1230.83051580145</v>
+        <v>1299.970143116922</v>
       </c>
       <c r="AB2" t="n">
-        <v>1684.076612129571</v>
+        <v>1778.676500447683</v>
       </c>
       <c r="AC2" t="n">
-        <v>1523.350703884294</v>
+        <v>1608.922111633102</v>
       </c>
       <c r="AD2" t="n">
-        <v>1230830.51580145</v>
+        <v>1299970.143116922</v>
       </c>
       <c r="AE2" t="n">
-        <v>1684076.61212957</v>
+        <v>1778676.500447683</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223966038289064e-06</v>
+        <v>2.375201805310058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.09407552083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1523350.703884294</v>
+        <v>1608922.111633102</v>
       </c>
     </row>
     <row r="3">
@@ -32213,28 +32213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>727.7746745302695</v>
+        <v>785.3909560360373</v>
       </c>
       <c r="AB3" t="n">
-        <v>995.7734168449466</v>
+        <v>1074.606555052083</v>
       </c>
       <c r="AC3" t="n">
-        <v>900.7381995180324</v>
+        <v>972.0476136576843</v>
       </c>
       <c r="AD3" t="n">
-        <v>727774.6745302696</v>
+        <v>785390.9560360373</v>
       </c>
       <c r="AE3" t="n">
-        <v>995773.4168449466</v>
+        <v>1074606.555052083</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.680602173098493e-06</v>
+        <v>3.261339931565006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.537760416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>900738.1995180324</v>
+        <v>972047.6136576843</v>
       </c>
     </row>
     <row r="4">
@@ -32319,28 +32319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>618.2361081906391</v>
+        <v>675.7670488418354</v>
       </c>
       <c r="AB4" t="n">
-        <v>845.8979178785783</v>
+        <v>924.6142889635173</v>
       </c>
       <c r="AC4" t="n">
-        <v>765.1666078214303</v>
+        <v>836.3703989291434</v>
       </c>
       <c r="AD4" t="n">
-        <v>618236.1081906392</v>
+        <v>675767.0488418353</v>
       </c>
       <c r="AE4" t="n">
-        <v>845897.9178785783</v>
+        <v>924614.2889635173</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.845944435411418e-06</v>
+        <v>3.582199520519515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.683268229166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>765166.6078214303</v>
+        <v>836370.3989291434</v>
       </c>
     </row>
     <row r="5">
@@ -32425,28 +32425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>568.7395426757755</v>
+        <v>614.7473165343692</v>
       </c>
       <c r="AB5" t="n">
-        <v>778.1745333067847</v>
+        <v>841.1243992198447</v>
       </c>
       <c r="AC5" t="n">
-        <v>703.9066480228014</v>
+        <v>760.8486670838107</v>
       </c>
       <c r="AD5" t="n">
-        <v>568739.5426757755</v>
+        <v>614747.3165343693</v>
       </c>
       <c r="AE5" t="n">
-        <v>778174.5333067847</v>
+        <v>841124.3992198447</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936838365199881e-06</v>
+        <v>3.75858629872381e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.274739583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>703906.6480228014</v>
+        <v>760848.6670838107</v>
       </c>
     </row>
     <row r="6">
@@ -32531,28 +32531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>539.6497889477369</v>
+        <v>585.6575628063306</v>
       </c>
       <c r="AB6" t="n">
-        <v>738.3726489067219</v>
+        <v>801.3225148197821</v>
       </c>
       <c r="AC6" t="n">
-        <v>667.9033996075849</v>
+        <v>724.8454186685943</v>
       </c>
       <c r="AD6" t="n">
-        <v>539649.7889477368</v>
+        <v>585657.5628063306</v>
       </c>
       <c r="AE6" t="n">
-        <v>738372.6489067218</v>
+        <v>801322.5148197821</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.986962970034472e-06</v>
+        <v>3.855857013898226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.06640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>667903.3996075849</v>
+        <v>724845.4186685943</v>
       </c>
     </row>
     <row r="7">
@@ -32637,28 +32637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>506.4588753570703</v>
+        <v>563.904475153695</v>
       </c>
       <c r="AB7" t="n">
-        <v>692.959376652208</v>
+        <v>771.5589806149494</v>
       </c>
       <c r="AC7" t="n">
-        <v>626.824306319114</v>
+        <v>697.9224743948884</v>
       </c>
       <c r="AD7" t="n">
-        <v>506458.8753570703</v>
+        <v>563904.475153695</v>
       </c>
       <c r="AE7" t="n">
-        <v>692959.376652208</v>
+        <v>771558.9806149494</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.022020650429589e-06</v>
+        <v>3.923889184039862e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.926432291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>626824.3063191141</v>
+        <v>697922.4743948884</v>
       </c>
     </row>
     <row r="8">
@@ -32743,28 +32743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>484.9201875225457</v>
+        <v>531.01321272716</v>
       </c>
       <c r="AB8" t="n">
-        <v>663.4891937371673</v>
+        <v>726.5557043028766</v>
       </c>
       <c r="AC8" t="n">
-        <v>600.1667162998233</v>
+        <v>657.2142476115449</v>
       </c>
       <c r="AD8" t="n">
-        <v>484920.1875225457</v>
+        <v>531013.21272716</v>
       </c>
       <c r="AE8" t="n">
-        <v>663489.1937371673</v>
+        <v>726555.7043028766</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.049791060180777e-06</v>
+        <v>3.977779835668909e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>600166.7162998233</v>
+        <v>657214.2476115449</v>
       </c>
     </row>
     <row r="9">
@@ -32849,28 +32849,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>470.6536407260971</v>
+        <v>516.7466659307114</v>
       </c>
       <c r="AB9" t="n">
-        <v>643.9690750146422</v>
+        <v>707.0355855803516</v>
       </c>
       <c r="AC9" t="n">
-        <v>582.5095703115172</v>
+        <v>639.5571016232389</v>
       </c>
       <c r="AD9" t="n">
-        <v>470653.6407260971</v>
+        <v>516746.6659307114</v>
       </c>
       <c r="AE9" t="n">
-        <v>643969.0750146422</v>
+        <v>707035.5855803516</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.066925993857042e-06</v>
+        <v>4.011031514333641e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.75390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>582509.5703115172</v>
+        <v>639557.1016232389</v>
       </c>
     </row>
     <row r="10">
@@ -32955,28 +32955,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>469.6658124198694</v>
+        <v>515.7588376244838</v>
       </c>
       <c r="AB10" t="n">
-        <v>642.6174847461524</v>
+        <v>705.6839953118617</v>
       </c>
       <c r="AC10" t="n">
-        <v>581.2869739212832</v>
+        <v>638.334505233005</v>
       </c>
       <c r="AD10" t="n">
-        <v>469665.8124198694</v>
+        <v>515758.8376244838</v>
       </c>
       <c r="AE10" t="n">
-        <v>642617.4847461524</v>
+        <v>705683.9953118617</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.068895526463509e-06</v>
+        <v>4.01485354636407e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.747395833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>581286.9739212833</v>
+        <v>638334.5052330049</v>
       </c>
     </row>
     <row r="11">
@@ -33061,28 +33061,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>471.5423065633567</v>
+        <v>517.635331767971</v>
       </c>
       <c r="AB11" t="n">
-        <v>645.1849868183506</v>
+        <v>708.2514973840598</v>
       </c>
       <c r="AC11" t="n">
-        <v>583.6094371992226</v>
+        <v>640.6569685109442</v>
       </c>
       <c r="AD11" t="n">
-        <v>471542.3065633567</v>
+        <v>517635.331767971</v>
       </c>
       <c r="AE11" t="n">
-        <v>645184.9868183506</v>
+        <v>708251.4973840598</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.068797049833186e-06</v>
+        <v>4.014662444762548e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.747395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>583609.4371992226</v>
+        <v>640656.9685109443</v>
       </c>
     </row>
   </sheetData>
@@ -33358,28 +33358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1765.253635276064</v>
+        <v>1860.977688708468</v>
       </c>
       <c r="AB2" t="n">
-        <v>2415.297901278782</v>
+        <v>2546.271774232187</v>
       </c>
       <c r="AC2" t="n">
-        <v>2184.78525947263</v>
+        <v>2303.259169814346</v>
       </c>
       <c r="AD2" t="n">
-        <v>1765253.635276064</v>
+        <v>1860977.688708468</v>
       </c>
       <c r="AE2" t="n">
-        <v>2415297.901278782</v>
+        <v>2546271.774232186</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.000575143495975e-06</v>
+        <v>1.877471424030836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.43619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2184785.25947263</v>
+        <v>2303259.169814346</v>
       </c>
     </row>
     <row r="3">
@@ -33464,28 +33464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>917.6085639683447</v>
+        <v>977.4574661429465</v>
       </c>
       <c r="AB3" t="n">
-        <v>1255.512519254253</v>
+        <v>1337.400427556761</v>
       </c>
       <c r="AC3" t="n">
-        <v>1135.688166539515</v>
+        <v>1209.760807804033</v>
       </c>
       <c r="AD3" t="n">
-        <v>917608.5639683447</v>
+        <v>977457.4661429465</v>
       </c>
       <c r="AE3" t="n">
-        <v>1255512.519254253</v>
+        <v>1337400.427556761</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499723972667905e-06</v>
+        <v>2.814070408325431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1135688.166539515</v>
+        <v>1209760.807804032</v>
       </c>
     </row>
     <row r="4">
@@ -33570,28 +33570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>760.8326373779208</v>
+        <v>808.7800497029698</v>
       </c>
       <c r="AB4" t="n">
-        <v>1041.004780027494</v>
+        <v>1106.608544861168</v>
       </c>
       <c r="AC4" t="n">
-        <v>941.6527448810548</v>
+        <v>1000.995378474465</v>
       </c>
       <c r="AD4" t="n">
-        <v>760832.6373779208</v>
+        <v>808780.0497029698</v>
       </c>
       <c r="AE4" t="n">
-        <v>1041004.780027494</v>
+        <v>1106608.544861168</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.688185869005444e-06</v>
+        <v>3.16769884612183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.148763020833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>941652.7448810547</v>
+        <v>1000995.378474465</v>
       </c>
     </row>
     <row r="5">
@@ -33676,28 +33676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>684.6330486948414</v>
+        <v>744.481861360892</v>
       </c>
       <c r="AB5" t="n">
-        <v>936.7451411027081</v>
+        <v>1018.632926935668</v>
       </c>
       <c r="AC5" t="n">
-        <v>847.3434995659278</v>
+        <v>921.4160300492189</v>
       </c>
       <c r="AD5" t="n">
-        <v>684633.0486948413</v>
+        <v>744481.8613608921</v>
       </c>
       <c r="AE5" t="n">
-        <v>936745.1411027081</v>
+        <v>1018632.926935668</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.789249272630559e-06</v>
+        <v>3.357333431344975e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.6328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>847343.4995659278</v>
+        <v>921416.0300492189</v>
       </c>
     </row>
     <row r="6">
@@ -33782,28 +33782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>647.4045131549511</v>
+        <v>695.2665846254283</v>
       </c>
       <c r="AB6" t="n">
-        <v>885.8074163699578</v>
+        <v>951.2944140814341</v>
       </c>
       <c r="AC6" t="n">
-        <v>801.2671997901255</v>
+        <v>860.5042103515971</v>
       </c>
       <c r="AD6" t="n">
-        <v>647404.5131549512</v>
+        <v>695266.5846254283</v>
       </c>
       <c r="AE6" t="n">
-        <v>885807.4163699577</v>
+        <v>951294.414081434</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.849792419590956e-06</v>
+        <v>3.47093612183546e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.349609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>801267.1997901255</v>
+        <v>860504.2103515971</v>
       </c>
     </row>
     <row r="7">
@@ -33888,28 +33888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>620.6260078124626</v>
+        <v>668.48807928294</v>
       </c>
       <c r="AB7" t="n">
-        <v>849.1678839760872</v>
+        <v>914.6548816875635</v>
       </c>
       <c r="AC7" t="n">
-        <v>768.1244929440194</v>
+        <v>827.3615035054909</v>
       </c>
       <c r="AD7" t="n">
-        <v>620626.0078124626</v>
+        <v>668488.07928294</v>
       </c>
       <c r="AE7" t="n">
-        <v>849167.8839760872</v>
+        <v>914654.8816875635</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.893159532695818e-06</v>
+        <v>3.552309835870181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.157552083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>768124.4929440194</v>
+        <v>827361.5035054908</v>
       </c>
     </row>
     <row r="8">
@@ -33994,28 +33994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>599.8935564151745</v>
+        <v>647.7556278856517</v>
       </c>
       <c r="AB8" t="n">
-        <v>820.8008293231147</v>
+        <v>886.2878270345913</v>
       </c>
       <c r="AC8" t="n">
-        <v>742.4647501737153</v>
+        <v>801.701760735187</v>
       </c>
       <c r="AD8" t="n">
-        <v>599893.5564151745</v>
+        <v>647755.6278856518</v>
       </c>
       <c r="AE8" t="n">
-        <v>820800.8293231147</v>
+        <v>886287.8270345912</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.92494942961076e-06</v>
+        <v>3.611960151409855e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.024088541666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>742464.7501737153</v>
+        <v>801701.760735187</v>
       </c>
     </row>
     <row r="9">
@@ -34100,28 +34100,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>569.9188612908013</v>
+        <v>629.6823331022805</v>
       </c>
       <c r="AB9" t="n">
-        <v>779.7881290637283</v>
+        <v>861.5591477744899</v>
       </c>
       <c r="AC9" t="n">
-        <v>705.3662444653983</v>
+        <v>779.3331519167504</v>
       </c>
       <c r="AD9" t="n">
-        <v>569918.8612908013</v>
+        <v>629682.3331022805</v>
       </c>
       <c r="AE9" t="n">
-        <v>779788.1290637283</v>
+        <v>861559.1477744899</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.948008966775927e-06</v>
+        <v>3.655228887756545e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.928059895833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>705366.2444653983</v>
+        <v>779333.1519167504</v>
       </c>
     </row>
     <row r="10">
@@ -34206,28 +34206,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>554.2314773559511</v>
+        <v>602.1788001724489</v>
       </c>
       <c r="AB10" t="n">
-        <v>758.3239582855314</v>
+        <v>823.9276006496571</v>
       </c>
       <c r="AC10" t="n">
-        <v>685.9505840211195</v>
+        <v>745.2931068333033</v>
       </c>
       <c r="AD10" t="n">
-        <v>554231.4773559511</v>
+        <v>602178.8001724489</v>
       </c>
       <c r="AE10" t="n">
-        <v>758323.9582855314</v>
+        <v>823927.6006496571</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.965849267134164e-06</v>
+        <v>3.688704288716123e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.8564453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>685950.5840211195</v>
+        <v>745293.1068333033</v>
       </c>
     </row>
     <row r="11">
@@ -34312,28 +34312,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>541.1368002844397</v>
+        <v>589.0841231009376</v>
       </c>
       <c r="AB11" t="n">
-        <v>740.4072434199088</v>
+        <v>806.0108857840345</v>
       </c>
       <c r="AC11" t="n">
-        <v>669.7438152760047</v>
+        <v>729.0863380881885</v>
       </c>
       <c r="AD11" t="n">
-        <v>541136.8002844397</v>
+        <v>589084.1231009376</v>
       </c>
       <c r="AE11" t="n">
-        <v>740407.2434199088</v>
+        <v>806010.8857840345</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.979229492402841e-06</v>
+        <v>3.713810839435807e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.804361979166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>669743.8152760047</v>
+        <v>729086.3380881886</v>
       </c>
     </row>
     <row r="12">
@@ -34418,28 +34418,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>528.3639722593255</v>
+        <v>576.3112950758233</v>
       </c>
       <c r="AB12" t="n">
-        <v>722.9308966185448</v>
+        <v>788.5345389826704</v>
       </c>
       <c r="AC12" t="n">
-        <v>653.9353864851563</v>
+        <v>713.27790929734</v>
       </c>
       <c r="AD12" t="n">
-        <v>528363.9722593254</v>
+        <v>576311.2950758233</v>
       </c>
       <c r="AE12" t="n">
-        <v>722930.8966185448</v>
+        <v>788534.5389826704</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.991660765524804e-06</v>
+        <v>3.737136783721472e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.755533854166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>653935.3864851563</v>
+        <v>713277.90929734</v>
       </c>
     </row>
     <row r="13">
@@ -34524,28 +34524,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>520.4229488885013</v>
+        <v>568.3702717049993</v>
       </c>
       <c r="AB13" t="n">
-        <v>712.0656381093575</v>
+        <v>777.669280473483</v>
       </c>
       <c r="AC13" t="n">
-        <v>644.1070929985996</v>
+        <v>703.4496158107834</v>
       </c>
       <c r="AD13" t="n">
-        <v>520422.9488885013</v>
+        <v>568370.2717049993</v>
       </c>
       <c r="AE13" t="n">
-        <v>712065.6381093574</v>
+        <v>777669.280473483</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.999916649201221e-06</v>
+        <v>3.752628059697446e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.722981770833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>644107.0929985995</v>
+        <v>703449.6158107833</v>
       </c>
     </row>
     <row r="14">
@@ -34630,28 +34630,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>520.8690728528734</v>
+        <v>568.8163956693711</v>
       </c>
       <c r="AB14" t="n">
-        <v>712.6760445990114</v>
+        <v>778.279686963137</v>
       </c>
       <c r="AC14" t="n">
-        <v>644.6592431495918</v>
+        <v>704.0017659617755</v>
       </c>
       <c r="AD14" t="n">
-        <v>520869.0728528734</v>
+        <v>568816.3956693711</v>
       </c>
       <c r="AE14" t="n">
-        <v>712676.0445990114</v>
+        <v>778279.686963137</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.99982175398655e-06</v>
+        <v>3.752449999054045e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.722981770833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>644659.2431495918</v>
+        <v>704001.7659617756</v>
       </c>
     </row>
   </sheetData>
@@ -34927,28 +34927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.7184744777556</v>
+        <v>323.3593358392403</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.3008659068298</v>
+        <v>442.4345089023308</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.8602218624046</v>
+        <v>400.2091803334248</v>
       </c>
       <c r="AD2" t="n">
-        <v>286718.4744777557</v>
+        <v>323359.3358392403</v>
       </c>
       <c r="AE2" t="n">
-        <v>392300.8659068298</v>
+        <v>442434.5089023308</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.151417465263704e-06</v>
+        <v>5.380531810560668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.225260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>354860.2218624045</v>
+        <v>400209.1803334248</v>
       </c>
     </row>
   </sheetData>
@@ -35224,28 +35224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.466835564176</v>
+        <v>810.2651765556619</v>
       </c>
       <c r="AB2" t="n">
-        <v>1019.980612094596</v>
+        <v>1108.640560940195</v>
       </c>
       <c r="AC2" t="n">
-        <v>922.635094028067</v>
+        <v>1002.833461790861</v>
       </c>
       <c r="AD2" t="n">
-        <v>745466.835564176</v>
+        <v>810265.176555662</v>
       </c>
       <c r="AE2" t="n">
-        <v>1019980.612094596</v>
+        <v>1108640.560940194</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.578755803421019e-06</v>
+        <v>3.251105710394539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.77473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>922635.094028067</v>
+        <v>1002833.461790861</v>
       </c>
     </row>
     <row r="3">
@@ -35330,28 +35330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.602714887597</v>
+        <v>566.58710890474</v>
       </c>
       <c r="AB3" t="n">
-        <v>701.3656489449453</v>
+        <v>775.2294784625776</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.4282957825097</v>
+        <v>701.2426650795152</v>
       </c>
       <c r="AD3" t="n">
-        <v>512602.714887597</v>
+        <v>566587.1089047401</v>
       </c>
       <c r="AE3" t="n">
-        <v>701365.6489449453</v>
+        <v>775229.4784625776</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.958238282053465e-06</v>
+        <v>4.032567701288394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.6865234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>634428.2957825097</v>
+        <v>701242.6650795152</v>
       </c>
     </row>
     <row r="4">
@@ -35436,28 +35436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.669419480466</v>
+        <v>494.8399560318171</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.9940259816379</v>
+        <v>677.0618586408527</v>
       </c>
       <c r="AC4" t="n">
-        <v>559.0135435020127</v>
+        <v>612.4440251144558</v>
       </c>
       <c r="AD4" t="n">
-        <v>451669.4194804661</v>
+        <v>494839.9560318171</v>
       </c>
       <c r="AE4" t="n">
-        <v>617994.025981638</v>
+        <v>677061.8586408527</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.093999157774629e-06</v>
+        <v>4.31213782692076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.123372395833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>559013.5435020127</v>
+        <v>612444.0251144558</v>
       </c>
     </row>
     <row r="5">
@@ -35542,28 +35542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>406.1795273494989</v>
+        <v>449.4353152468706</v>
       </c>
       <c r="AB5" t="n">
-        <v>555.7527486956461</v>
+        <v>614.93722600751</v>
       </c>
       <c r="AC5" t="n">
-        <v>502.7124863640145</v>
+        <v>556.2484802271699</v>
       </c>
       <c r="AD5" t="n">
-        <v>406179.5273494989</v>
+        <v>449435.3152468706</v>
       </c>
       <c r="AE5" t="n">
-        <v>555752.7486956461</v>
+        <v>614937.2260075101</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.161200268697422e-06</v>
+        <v>4.450523963011298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>502712.4863640144</v>
+        <v>556248.4802271699</v>
       </c>
     </row>
     <row r="6">
@@ -35648,28 +35648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>402.1015194760447</v>
+        <v>445.3573073734164</v>
       </c>
       <c r="AB6" t="n">
-        <v>550.1730384141758</v>
+        <v>609.35751572604</v>
       </c>
       <c r="AC6" t="n">
-        <v>497.6652958006353</v>
+        <v>551.2012896637907</v>
       </c>
       <c r="AD6" t="n">
-        <v>402101.5194760447</v>
+        <v>445357.3073734164</v>
       </c>
       <c r="AE6" t="n">
-        <v>550173.0384141759</v>
+        <v>609357.51572604</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.16945670378747e-06</v>
+        <v>4.467526303215269e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.840169270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>497665.2958006353</v>
+        <v>551201.2896637907</v>
       </c>
     </row>
   </sheetData>
@@ -35945,28 +35945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1020.49729111162</v>
+        <v>1087.979883738241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1396.289414861969</v>
+        <v>1488.622075215584</v>
       </c>
       <c r="AC2" t="n">
-        <v>1263.029512812044</v>
+        <v>1346.550073651212</v>
       </c>
       <c r="AD2" t="n">
-        <v>1020497.29111162</v>
+        <v>1087979.883738241</v>
       </c>
       <c r="AE2" t="n">
-        <v>1396289.414861969</v>
+        <v>1488622.075215584</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352869473579181e-06</v>
+        <v>2.680283506371071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.10611979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1263029.512812044</v>
+        <v>1346550.073651212</v>
       </c>
     </row>
     <row r="3">
@@ -36051,28 +36051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>645.8938945759544</v>
+        <v>690.9392133995998</v>
       </c>
       <c r="AB3" t="n">
-        <v>883.7405213863864</v>
+        <v>945.3735138601105</v>
       </c>
       <c r="AC3" t="n">
-        <v>799.3975663628808</v>
+        <v>855.148392537361</v>
       </c>
       <c r="AD3" t="n">
-        <v>645893.8945759544</v>
+        <v>690939.2133995998</v>
       </c>
       <c r="AE3" t="n">
-        <v>883740.5213863864</v>
+        <v>945373.5138601105</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.781118821258838e-06</v>
+        <v>3.528724309875368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.1943359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>799397.5663628808</v>
+        <v>855148.392537361</v>
       </c>
     </row>
     <row r="4">
@@ -36157,28 +36157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>553.2439647956774</v>
+        <v>598.2039427647509</v>
       </c>
       <c r="AB4" t="n">
-        <v>756.9728000345854</v>
+        <v>818.489025386112</v>
       </c>
       <c r="AC4" t="n">
-        <v>684.7283784172812</v>
+        <v>740.3735815598227</v>
       </c>
       <c r="AD4" t="n">
-        <v>553243.9647956773</v>
+        <v>598203.9427647509</v>
       </c>
       <c r="AE4" t="n">
-        <v>756972.8000345854</v>
+        <v>818489.0253861119</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.936983069274766e-06</v>
+        <v>3.837520081639503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.455403645833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>684728.3784172812</v>
+        <v>740373.5815598227</v>
       </c>
     </row>
     <row r="5">
@@ -36263,28 +36263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>512.7465913352462</v>
+        <v>557.7065693043198</v>
       </c>
       <c r="AB5" t="n">
-        <v>701.5625070479997</v>
+        <v>763.0787323995262</v>
       </c>
       <c r="AC5" t="n">
-        <v>634.6063660245007</v>
+        <v>690.2515691670419</v>
       </c>
       <c r="AD5" t="n">
-        <v>512746.5913352462</v>
+        <v>557706.5693043198</v>
       </c>
       <c r="AE5" t="n">
-        <v>701562.5070479997</v>
+        <v>763078.7323995262</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.015669862011019e-06</v>
+        <v>3.993413105215715e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>634606.3660245007</v>
+        <v>690251.5691670419</v>
       </c>
     </row>
     <row r="6">
@@ -36369,28 +36369,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>470.7562223550054</v>
+        <v>515.8014516700996</v>
       </c>
       <c r="AB6" t="n">
-        <v>644.1094317248967</v>
+        <v>705.7423017290723</v>
       </c>
       <c r="AC6" t="n">
-        <v>582.6365315743369</v>
+        <v>638.3872469675905</v>
       </c>
       <c r="AD6" t="n">
-        <v>470756.2223550054</v>
+        <v>515801.4516700996</v>
       </c>
       <c r="AE6" t="n">
-        <v>644109.4317248967</v>
+        <v>705742.3017290724</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.067792315511504e-06</v>
+        <v>4.096677281958015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.919921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>582636.5315743369</v>
+        <v>638387.2469675905</v>
       </c>
     </row>
     <row r="7">
@@ -36475,28 +36475,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>447.71408275644</v>
+        <v>492.7593120715341</v>
       </c>
       <c r="AB7" t="n">
-        <v>612.5821597786846</v>
+        <v>674.2150297828603</v>
       </c>
       <c r="AC7" t="n">
-        <v>554.1181782138674</v>
+        <v>609.868893607121</v>
       </c>
       <c r="AD7" t="n">
-        <v>447714.08275644</v>
+        <v>492759.3120715341</v>
       </c>
       <c r="AE7" t="n">
-        <v>612582.1597786846</v>
+        <v>674215.0297828603</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.100595249567794e-06</v>
+        <v>4.161665933730195e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.796223958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>554118.1782138674</v>
+        <v>609868.893607121</v>
       </c>
     </row>
     <row r="8">
@@ -36581,28 +36581,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>441.5350940008836</v>
+        <v>486.5803233159778</v>
       </c>
       <c r="AB8" t="n">
-        <v>604.1277947655875</v>
+        <v>665.7606647697634</v>
       </c>
       <c r="AC8" t="n">
-        <v>546.4706859318444</v>
+        <v>602.221401325098</v>
       </c>
       <c r="AD8" t="n">
-        <v>441535.0940008836</v>
+        <v>486580.3233159778</v>
       </c>
       <c r="AE8" t="n">
-        <v>604127.7947655875</v>
+        <v>665760.6647697634</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.109349406815944e-06</v>
+        <v>4.17900953098228e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.763671875</v>
       </c>
       <c r="AH8" t="n">
-        <v>546470.6859318444</v>
+        <v>602221.401325098</v>
       </c>
     </row>
     <row r="9">
@@ -36687,28 +36687,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>443.819558790715</v>
+        <v>488.8647881058092</v>
       </c>
       <c r="AB9" t="n">
-        <v>607.2535002745085</v>
+        <v>668.8863702786842</v>
       </c>
       <c r="AC9" t="n">
-        <v>549.2980784939491</v>
+        <v>605.0487938872027</v>
       </c>
       <c r="AD9" t="n">
-        <v>443819.558790715</v>
+        <v>488864.7881058092</v>
       </c>
       <c r="AE9" t="n">
-        <v>607253.5002745085</v>
+        <v>668886.3702786842</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.109349406815944e-06</v>
+        <v>4.17900953098228e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.763671875</v>
       </c>
       <c r="AH9" t="n">
-        <v>549298.0784939491</v>
+        <v>605048.7938872027</v>
       </c>
     </row>
   </sheetData>
